--- a/match.xlsx
+++ b/match.xlsx
@@ -619,31 +619,31 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>249999.99895</v>
+        <v>249999.99710715</v>
       </c>
       <c r="F2" t="n">
         <v>12</v>
       </c>
       <c r="G2" t="n">
-        <v>249999.99785835</v>
+        <v>249999.99895</v>
       </c>
       <c r="H2" t="n">
         <v>12</v>
       </c>
       <c r="I2" t="n">
-        <v>249999.99785835</v>
+        <v>249999.99895</v>
       </c>
       <c r="J2" t="n">
         <v>12</v>
       </c>
       <c r="K2" t="n">
-        <v>249999.99785835</v>
+        <v>249999.99895</v>
       </c>
       <c r="L2" t="n">
         <v>999952</v>
       </c>
       <c r="M2" t="n">
-        <v>48999995.331792</v>
+        <v>48999999.9546408</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -694,7 +694,7 @@
         <v>8</v>
       </c>
       <c r="AD2" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AE2" t="n">
         <v>8</v>
@@ -703,13 +703,13 @@
         <v>-0.01704999999492429</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.006950000009965152</v>
+        <v>0.006949999980861321</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.01595000000088476</v>
+        <v>-0.01404999999795109</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.002050000010058284</v>
+        <v>0.02794999998877756</v>
       </c>
     </row>
     <row r="3">
@@ -723,40 +723,40 @@
         <v>4.4</v>
       </c>
       <c r="D3" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E3" t="n">
-        <v>249999.99505835</v>
+        <v>250000.0232155</v>
       </c>
       <c r="F3" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G3" t="n">
-        <v>250000.0119667</v>
+        <v>249999.98305835</v>
       </c>
       <c r="H3" t="n">
         <v>12</v>
       </c>
       <c r="I3" t="n">
-        <v>250000.0029667</v>
+        <v>250000.00405835</v>
       </c>
       <c r="J3" t="n">
         <v>16</v>
       </c>
       <c r="K3" t="n">
-        <v>249999.9789667</v>
+        <v>249999.98005835</v>
       </c>
       <c r="L3" t="n">
         <v>999948</v>
       </c>
       <c r="M3" t="n">
-        <v>48999995.32090035</v>
+        <v>48999999.94374915</v>
       </c>
       <c r="N3" t="n">
         <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="P3" t="n">
         <v>8</v>
@@ -768,7 +768,7 @@
         <v>21.2</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="X3" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="Y3" t="n">
         <v>8</v>
@@ -801,22 +801,22 @@
         <v>13</v>
       </c>
       <c r="AD3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AF3" t="n">
         <v>-0.03964999999152496</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.01194999998551793</v>
+        <v>0.01195000001462176</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.02095000000554137</v>
+        <v>0.03295000002253801</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.01295000000391155</v>
+        <v>0.01495000001159497</v>
       </c>
     </row>
     <row r="4">
@@ -830,43 +830,43 @@
         <v>4.840000000000001</v>
       </c>
       <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>250000.03632385</v>
+      </c>
+      <c r="F4" t="n">
+        <v>11</v>
+      </c>
+      <c r="G4" t="n">
+        <v>250000.0141667</v>
+      </c>
+      <c r="H4" t="n">
         <v>13</v>
       </c>
-      <c r="E4" t="n">
-        <v>250000.0061667</v>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
-      </c>
-      <c r="G4" t="n">
-        <v>250000.03107505</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
       <c r="I4" t="n">
-        <v>250000.01307505</v>
+        <v>250000.0141667</v>
       </c>
       <c r="J4" t="n">
         <v>24</v>
       </c>
       <c r="K4" t="n">
-        <v>249999.93747505</v>
+        <v>249999.9385667</v>
       </c>
       <c r="L4" t="n">
-        <v>999944</v>
+        <v>999951</v>
       </c>
       <c r="M4" t="n">
-        <v>48999995.3076087</v>
+        <v>48999999.9164575</v>
       </c>
       <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
         <v>8</v>
       </c>
-      <c r="O4" t="n">
-        <v>10</v>
-      </c>
       <c r="P4" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Q4" t="n">
         <v>4</v>
@@ -875,10 +875,10 @@
         <v>22.05333333333333</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>1</v>
@@ -887,13 +887,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="X4" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="Y4" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="Z4" t="n">
         <v>22</v>
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD4" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="AE4" t="n">
         <v>0</v>
@@ -917,13 +917,13 @@
         <v>0.02903999999398366</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>-0.009050000022398308</v>
       </c>
       <c r="AH4" t="n">
-        <v>-0.04605000000447035</v>
+        <v>0.0009499999869149178</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.04499999998370185</v>
+        <v>0.005999999993946403</v>
       </c>
     </row>
     <row r="5">
@@ -940,40 +940,40 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>250000.05007505</v>
+        <v>250000.0412322</v>
       </c>
       <c r="F5" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>249999.9831834</v>
+        <v>250000.01327505</v>
       </c>
       <c r="H5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I5" t="n">
-        <v>250000.0112334</v>
+        <v>250000.00327505</v>
       </c>
       <c r="J5" t="n">
         <v>20</v>
       </c>
       <c r="K5" t="n">
-        <v>249999.9646734</v>
+        <v>249999.96576505</v>
       </c>
       <c r="L5" t="n">
-        <v>999949</v>
+        <v>999956</v>
       </c>
       <c r="M5" t="n">
-        <v>48999995.2775187</v>
+        <v>48999999.8863675</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="n">
         <v>5</v>
@@ -994,13 +994,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="X5" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Y5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Z5" t="n">
         <v>22</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AE5" t="n">
         <v>0</v>
@@ -1027,10 +1027,10 @@
         <v>0.005000000004656613</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0.06105000001844019</v>
+        <v>-0.03105000001960434</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.05999999999767169</v>
+        <v>0.02999999999883585</v>
       </c>
     </row>
     <row r="6">
@@ -1047,31 +1047,31 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>250000.11007505</v>
+        <v>250000.0712322</v>
       </c>
       <c r="F6" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>249999.9221334</v>
+        <v>249999.98222505</v>
       </c>
       <c r="H6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I6" t="n">
-        <v>250000.01439175</v>
+        <v>250000.0064334</v>
       </c>
       <c r="J6" t="n">
         <v>16</v>
       </c>
       <c r="K6" t="n">
-        <v>249999.98872575</v>
+        <v>249999.9898174</v>
       </c>
       <c r="L6" t="n">
-        <v>999954</v>
+        <v>999961</v>
       </c>
       <c r="M6" t="n">
-        <v>48999995.2445247</v>
+        <v>48999999.8533735</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -1089,7 +1089,7 @@
         <v>24.82040000000001</v>
       </c>
       <c r="S6" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>1</v>
       </c>
       <c r="W6" t="n">
+        <v>22</v>
+      </c>
+      <c r="X6" t="n">
         <v>36</v>
       </c>
-      <c r="X6" t="n">
-        <v>69</v>
-      </c>
       <c r="Y6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z6" t="n">
         <v>14</v>
@@ -1119,25 +1119,25 @@
         <v>11</v>
       </c>
       <c r="AC6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AD6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF6" t="n">
         <v>-0.02091160000418313</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.02194999999483116</v>
+        <v>0.01394999999320135</v>
       </c>
       <c r="AH6" t="n">
-        <v>-0.04404999999678694</v>
+        <v>0.02395000000251457</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.0749999999825377</v>
+        <v>0.007949999999254942</v>
       </c>
     </row>
     <row r="7">
@@ -1151,43 +1151,43 @@
         <v>6.442040000000003</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>250000.18507505</v>
+        <v>250000.0791822</v>
       </c>
       <c r="F7" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>249999.87624175</v>
+        <v>250000.0050834</v>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I7" t="n">
-        <v>250000.0345001</v>
+        <v>250000.01854175</v>
       </c>
       <c r="J7" t="n">
         <v>20</v>
       </c>
       <c r="K7" t="n">
-        <v>249999.9659725</v>
+        <v>249999.96706415</v>
       </c>
       <c r="L7" t="n">
-        <v>999961</v>
+        <v>999965</v>
       </c>
       <c r="M7" t="n">
-        <v>48999995.2083363</v>
+        <v>48999999.82059345</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q7" t="n">
         <v>7</v>
@@ -1196,7 +1196,7 @@
         <v>26.86244000000001</v>
       </c>
       <c r="S7" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1208,10 +1208,10 @@
         <v>-1</v>
       </c>
       <c r="W7" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="X7" t="n">
-        <v>131</v>
+        <v>49</v>
       </c>
       <c r="Y7" t="n">
         <v>12</v>
@@ -1229,22 +1229,22 @@
         <v>15</v>
       </c>
       <c r="AD7" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AE7" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="AF7" t="n">
-        <v>-0.02739776001544669</v>
+        <v>-0.02739775998634286</v>
       </c>
       <c r="AG7" t="n">
         <v>0.003949999983888119</v>
       </c>
       <c r="AH7" t="n">
-        <v>-0.03104999999050051</v>
+        <v>-0.001049999991664663</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.08095000000321306</v>
+        <v>0.02295000001322478</v>
       </c>
     </row>
     <row r="8">
@@ -1258,43 +1258,43 @@
         <v>7.086244000000004</v>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E8" t="n">
-        <v>250000.26602505</v>
+        <v>250000.09954055</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>249999.8441001</v>
+        <v>250000.0040334</v>
       </c>
       <c r="H8" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>250000.03660845</v>
+        <v>250000.0214001</v>
       </c>
       <c r="J8" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K8" t="n">
-        <v>249999.93673309</v>
+        <v>249999.93782474</v>
       </c>
       <c r="L8" t="n">
-        <v>999962</v>
+        <v>999952</v>
       </c>
       <c r="M8" t="n">
-        <v>48999995.17404241</v>
+        <v>48999999.81504956</v>
       </c>
       <c r="N8" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P8" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>5</v>
@@ -1303,55 +1303,55 @@
         <v>29.10868400000001</v>
       </c>
       <c r="S8" t="n">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="T8" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
         <v>1</v>
       </c>
       <c r="W8" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="X8" t="n">
-        <v>219</v>
+        <v>85</v>
       </c>
       <c r="Y8" t="n">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="Z8" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AA8" t="n">
         <v>7.086244000000004</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC8" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AE8" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.04251746399677359</v>
+        <v>0.0214674640155863</v>
       </c>
       <c r="AG8" t="n">
-        <v>-0.02905000001192093</v>
+        <v>0.01999999998952262</v>
       </c>
       <c r="AH8" t="n">
-        <v>-0.07804999998188578</v>
+        <v>-0.06105000001844019</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.07995000001392327</v>
+        <v>0.0489499999966938</v>
       </c>
     </row>
     <row r="9">
@@ -1365,43 +1365,43 @@
         <v>7.794868400000006</v>
       </c>
       <c r="D9" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>250000.3433834</v>
+        <v>250000.1466489</v>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G9" t="n">
-        <v>249999.7660501</v>
+        <v>249999.94039175</v>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>250000.0057168</v>
+        <v>250000.0414001</v>
       </c>
       <c r="J9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K9" t="n">
-        <v>249999.977408904</v>
+        <v>249999.957450554</v>
       </c>
       <c r="L9" t="n">
-        <v>999958</v>
+        <v>999955</v>
       </c>
       <c r="M9" t="n">
-        <v>48999995.15263329</v>
+        <v>48999999.77964044</v>
       </c>
       <c r="N9" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="O9" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
         <v>8</v>
@@ -1410,55 +1410,55 @@
         <v>31.57955240000002</v>
       </c>
       <c r="S9" t="n">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="T9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="X9" t="n">
-        <v>333</v>
+        <v>132</v>
       </c>
       <c r="Y9" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Z9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA9" t="n">
         <v>7.794868400000006</v>
       </c>
       <c r="AB9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="AE9" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.03071921039372683</v>
+        <v>0.04676921039936133</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.01500000001396984</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>-0.1210500000161119</v>
+        <v>-0.03104999999050051</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.09094999998342246</v>
+        <v>0.02999999999883585</v>
       </c>
     </row>
     <row r="10">
@@ -1472,43 +1472,43 @@
         <v>8.574355240000006</v>
       </c>
       <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>250000.17555725</v>
+      </c>
+      <c r="F10" t="n">
+        <v>11</v>
+      </c>
+      <c r="G10" t="n">
+        <v>249999.9075001</v>
+      </c>
+      <c r="H10" t="n">
+        <v>12</v>
+      </c>
+      <c r="I10" t="n">
+        <v>250000.03955845</v>
+      </c>
+      <c r="J10" t="n">
         <v>14</v>
       </c>
-      <c r="E10" t="n">
-        <v>250000.43249175</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="K10" t="n">
+        <v>250000.0023781144</v>
+      </c>
+      <c r="L10" t="n">
+        <v>999963</v>
+      </c>
+      <c r="M10" t="n">
+        <v>48999999.73182124</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>5</v>
+      </c>
+      <c r="P10" t="n">
         <v>12</v>
-      </c>
-      <c r="G10" t="n">
-        <v>249999.64315845</v>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-      <c r="I10" t="n">
-        <v>250000.01887515</v>
-      </c>
-      <c r="J10" t="n">
-        <v>15</v>
-      </c>
-      <c r="K10" t="n">
-        <v>250000.0062864644</v>
-      </c>
-      <c r="L10" t="n">
-        <v>999952</v>
-      </c>
-      <c r="M10" t="n">
-        <v>48999995.13097244</v>
-      </c>
-      <c r="N10" t="n">
-        <v>14</v>
-      </c>
-      <c r="O10" t="n">
-        <v>12</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4</v>
       </c>
       <c r="Q10" t="n">
         <v>8</v>
@@ -1517,55 +1517,55 @@
         <v>34.29750764000002</v>
       </c>
       <c r="S10" t="n">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="T10" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="X10" t="n">
-        <v>466</v>
+        <v>178</v>
       </c>
       <c r="Y10" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Z10" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AA10" t="n">
         <v>8.574355240000006</v>
       </c>
       <c r="AB10" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="AE10" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.01460386856342666</v>
+        <v>0.005396131426095963</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.06500000000232831</v>
+        <v>0.04500000001280569</v>
       </c>
       <c r="AH10" t="n">
-        <v>-0.1360500000009779</v>
+        <v>-0.03104999999050051</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.1139499999990221</v>
+        <v>0.02999999999883585</v>
       </c>
     </row>
     <row r="11">
@@ -1579,43 +1579,43 @@
         <v>9.431790764000008</v>
       </c>
       <c r="D11" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>250000.5446001</v>
+        <v>250000.20555725</v>
       </c>
       <c r="F11" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G11" t="n">
-        <v>249999.5052668</v>
+        <v>249999.8764501</v>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>250000.0820335</v>
+        <v>250000.0827168</v>
       </c>
       <c r="J11" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K11" t="n">
-        <v>249999.9898409458</v>
+        <v>250000.0059325958</v>
       </c>
       <c r="L11" t="n">
-        <v>999951</v>
+        <v>999972</v>
       </c>
       <c r="M11" t="n">
-        <v>48999995.09663466</v>
+        <v>48999999.6793251</v>
       </c>
       <c r="N11" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>9</v>
@@ -1624,55 +1624,55 @@
         <v>37.28725840400002</v>
       </c>
       <c r="S11" t="n">
-        <v>167</v>
+        <v>51</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>-1</v>
       </c>
       <c r="W11" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="X11" t="n">
-        <v>608</v>
+        <v>202</v>
       </c>
       <c r="Y11" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="Z11" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AA11" t="n">
         <v>9.431790764000008</v>
       </c>
       <c r="AB11" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AC11" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AD11" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="AE11" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.01054074458079413</v>
+        <v>-0.01945925541804172</v>
       </c>
       <c r="AG11" t="n">
-        <v>-0.01204999999026768</v>
+        <v>0.03394999998272397</v>
       </c>
       <c r="AH11" t="n">
-        <v>-0.09505000000353903</v>
+        <v>0.02395000000251457</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.1129500000097323</v>
+        <v>-0.03205000000889413</v>
       </c>
     </row>
   </sheetData>

--- a/match.xlsx
+++ b/match.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI11"/>
+  <dimension ref="A1:AI51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,40 +610,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.002</v>
+        <v>0.001739632974144776</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2.575731257622808</v>
       </c>
       <c r="D2" t="n">
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>249999.99710715</v>
+        <v>249999.99895</v>
       </c>
       <c r="F2" t="n">
         <v>12</v>
       </c>
       <c r="G2" t="n">
-        <v>249999.99895</v>
+        <v>249999.99785835</v>
       </c>
       <c r="H2" t="n">
         <v>12</v>
       </c>
       <c r="I2" t="n">
-        <v>249999.99895</v>
+        <v>249999.99785835</v>
       </c>
       <c r="J2" t="n">
         <v>12</v>
       </c>
       <c r="K2" t="n">
-        <v>249999.99895</v>
+        <v>249999.99785835</v>
       </c>
       <c r="L2" t="n">
         <v>999952</v>
       </c>
       <c r="M2" t="n">
-        <v>48999999.9546408</v>
+        <v>48999975.6471994</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>20.4</v>
+        <v>14.24621657240584</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -685,31 +685,31 @@
         <v>12</v>
       </c>
       <c r="AA2" t="n">
-        <v>4</v>
+        <v>2.575731257622808</v>
       </c>
       <c r="AB2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AD2" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="AE2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.01704999999492429</v>
+        <v>0.0036943162267562</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.006949999980861321</v>
+        <v>0.0006896329869050533</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.01404999999795109</v>
+        <v>0.0006896329869050533</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.02794999998877756</v>
+        <v>0.0006896329578012228</v>
       </c>
     </row>
     <row r="3">
@@ -717,106 +717,106 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.002</v>
+        <v>0.001622765785417152</v>
       </c>
       <c r="C3" t="n">
-        <v>4.4</v>
+        <v>1.658026047166465</v>
       </c>
       <c r="D3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E3" t="n">
-        <v>250000.0232155</v>
+        <v>249999.997797983</v>
       </c>
       <c r="F3" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G3" t="n">
-        <v>249999.98305835</v>
+        <v>249999.996706333</v>
       </c>
       <c r="H3" t="n">
         <v>12</v>
       </c>
       <c r="I3" t="n">
-        <v>250000.00405835</v>
+        <v>249999.996706333</v>
       </c>
       <c r="J3" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K3" t="n">
-        <v>249999.98005835</v>
+        <v>249999.9997110162</v>
       </c>
       <c r="L3" t="n">
-        <v>999948</v>
+        <v>999953</v>
       </c>
       <c r="M3" t="n">
-        <v>48999999.94374915</v>
+        <v>48999975.63434453</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>14.24621657240584</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>4</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1.658026047166465</v>
+      </c>
+      <c r="AB3" t="n">
         <v>12</v>
       </c>
-      <c r="P3" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>4</v>
-      </c>
-      <c r="R3" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>20</v>
-      </c>
-      <c r="X3" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>13</v>
-      </c>
       <c r="AC3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.03964999999152496</v>
+        <v>-0.04166120974696241</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.01195000001462176</v>
+        <v>0.008686594694154337</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.03295000002253801</v>
+        <v>0.008686594694154337</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.01495000001159497</v>
+        <v>0.01193212627549656</v>
       </c>
     </row>
     <row r="4">
@@ -824,106 +824,106 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.002</v>
+        <v>0.002288864876071324</v>
       </c>
       <c r="C4" t="n">
-        <v>4.840000000000001</v>
+        <v>1.29811501398614</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>250000.03632385</v>
+        <v>250000.0078884593</v>
       </c>
       <c r="F4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" t="n">
-        <v>250000.0141667</v>
+        <v>250000.0035512777</v>
       </c>
       <c r="H4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" t="n">
-        <v>250000.0141667</v>
+        <v>250000.0035512777</v>
       </c>
       <c r="J4" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K4" t="n">
-        <v>249999.9385667</v>
+        <v>249999.9562081565</v>
       </c>
       <c r="L4" t="n">
-        <v>999951</v>
+        <v>999945</v>
       </c>
       <c r="M4" t="n">
-        <v>48999999.9164575</v>
+        <v>48999975.63960878</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="P4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>22.05333333333333</v>
+        <v>14.24621657240584</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X4" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="Y4" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Z4" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AA4" t="n">
-        <v>4.840000000000001</v>
+        <v>1.29811501398614</v>
       </c>
       <c r="AB4" t="n">
         <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.02903999999398366</v>
+        <v>0.008913629571907222</v>
       </c>
       <c r="AG4" t="n">
-        <v>-0.009050000022398308</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.0009499999869149178</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.005999999993946403</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -931,106 +931,106 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.002</v>
+        <v>0.001346985006162508</v>
       </c>
       <c r="C5" t="n">
-        <v>5.324000000000002</v>
+        <v>1.349144356967332</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>250000.0412322</v>
+        <v>250000.0078884593</v>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G5" t="n">
-        <v>250000.01327505</v>
+        <v>250000.0035512777</v>
       </c>
       <c r="H5" t="n">
+        <v>12</v>
+      </c>
+      <c r="I5" t="n">
+        <v>250000.0035512777</v>
+      </c>
+      <c r="J5" t="n">
+        <v>21</v>
+      </c>
+      <c r="K5" t="n">
+        <v>249999.9651217861</v>
+      </c>
+      <c r="L5" t="n">
+        <v>999945</v>
+      </c>
+      <c r="M5" t="n">
+        <v>48999975.62964515</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>10.12464120040316</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" t="n">
+        <v>26</v>
+      </c>
+      <c r="X5" t="n">
         <v>14</v>
       </c>
-      <c r="I5" t="n">
-        <v>250000.00327505</v>
-      </c>
-      <c r="J5" t="n">
-        <v>20</v>
-      </c>
-      <c r="K5" t="n">
-        <v>249999.96576505</v>
-      </c>
-      <c r="L5" t="n">
-        <v>999956</v>
-      </c>
-      <c r="M5" t="n">
-        <v>48999999.8863675</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R5" t="n">
-        <v>22.96400000000001</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>30</v>
-      </c>
-      <c r="X5" t="n">
-        <v>29</v>
-      </c>
       <c r="Y5" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="Z5" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AA5" t="n">
-        <v>5.324000000000002</v>
+        <v>1.349144356967332</v>
       </c>
       <c r="AB5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
         <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.02589399999123998</v>
+        <v>0.00545183167560026</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.005000000004656613</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0.03105000001960434</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.02999999999883585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1038,40 +1038,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.002</v>
+        <v>0.001576730869142232</v>
       </c>
       <c r="C6" t="n">
-        <v>5.856400000000002</v>
+        <v>1.232263576724099</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>250000.0712322</v>
+        <v>250000.0078884593</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G6" t="n">
-        <v>249999.98222505</v>
+        <v>250000.0035512777</v>
       </c>
       <c r="H6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" t="n">
-        <v>250000.0064334</v>
+        <v>250000.0035512777</v>
       </c>
       <c r="J6" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K6" t="n">
-        <v>249999.9898174</v>
+        <v>249999.9687319677</v>
       </c>
       <c r="L6" t="n">
-        <v>999961</v>
+        <v>999947</v>
       </c>
       <c r="M6" t="n">
-        <v>48999999.8533735</v>
+        <v>48999975.62314332</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -1083,61 +1083,61 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R6" t="n">
-        <v>24.82040000000001</v>
+        <v>10.12464120040316</v>
       </c>
       <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>24</v>
+      </c>
+      <c r="X6" t="n">
         <v>12</v>
       </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W6" t="n">
-        <v>22</v>
-      </c>
-      <c r="X6" t="n">
-        <v>36</v>
-      </c>
       <c r="Y6" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Z6" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AA6" t="n">
-        <v>5.856400000000002</v>
+        <v>1.232263576724099</v>
       </c>
       <c r="AB6" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>-0.02091160000418313</v>
+        <v>0.00582884406321682</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.01394999999320135</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.02395000000251457</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.007949999999254942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1145,58 +1145,58 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.002</v>
+        <v>0.001458403437060391</v>
       </c>
       <c r="C7" t="n">
-        <v>6.442040000000003</v>
+        <v>1.789222550286024</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>250000.0791822</v>
+        <v>250000.0078884593</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G7" t="n">
-        <v>250000.0050834</v>
+        <v>250000.0035512777</v>
       </c>
       <c r="H7" t="n">
         <v>12</v>
       </c>
       <c r="I7" t="n">
-        <v>250000.01854175</v>
+        <v>250000.0035512777</v>
       </c>
       <c r="J7" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K7" t="n">
-        <v>249999.96706415</v>
+        <v>249999.9727191618</v>
       </c>
       <c r="L7" t="n">
-        <v>999965</v>
+        <v>999948</v>
       </c>
       <c r="M7" t="n">
-        <v>48999999.82059345</v>
+        <v>48999975.61626447</v>
       </c>
       <c r="N7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
-        <v>26.86244000000001</v>
+        <v>10.12464120040316</v>
       </c>
       <c r="S7" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1205,46 +1205,46 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="X7" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>6.442040000000003</v>
+        <v>1.789222550286024</v>
       </c>
       <c r="AB7" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AC7" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AD7" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AE7" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>-0.02739775998634286</v>
+        <v>-0.02968186096404679</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.003949999983888119</v>
+        <v>0.00624201720347628</v>
       </c>
       <c r="AH7" t="n">
-        <v>-0.001049999991664663</v>
+        <v>0.00624201720347628</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.02295000001322478</v>
+        <v>0.021876051556319</v>
       </c>
     </row>
     <row r="8">
@@ -1252,106 +1252,106 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.002</v>
+        <v>0.002172698468302466</v>
       </c>
       <c r="C8" t="n">
-        <v>7.086244000000004</v>
+        <v>2.157172990438202</v>
       </c>
       <c r="D8" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>250000.09954055</v>
+        <v>250000.0286728608</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G8" t="n">
-        <v>250000.0040334</v>
+        <v>250000.0079516449</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I8" t="n">
-        <v>250000.0214001</v>
+        <v>250000.0079516449</v>
       </c>
       <c r="J8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K8" t="n">
-        <v>249999.93782474</v>
+        <v>249999.9411956508</v>
       </c>
       <c r="L8" t="n">
-        <v>999952</v>
+        <v>999950</v>
       </c>
       <c r="M8" t="n">
-        <v>48999999.81504956</v>
+        <v>48999975.60738625</v>
       </c>
       <c r="N8" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R8" t="n">
-        <v>29.10868400000001</v>
+        <v>10.12464120040316</v>
       </c>
       <c r="S8" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="X8" t="n">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="Y8" t="n">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="Z8" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>7.086244000000004</v>
+        <v>2.157172990438202</v>
       </c>
       <c r="AB8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.0214674640155863</v>
+        <v>0.01406065933406353</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.01999999998952262</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>-0.06105000001844019</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.0489499999966938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1359,82 +1359,82 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.002</v>
+        <v>0.002370518547509289</v>
       </c>
       <c r="C9" t="n">
-        <v>7.794868400000006</v>
+        <v>2.120617156486126</v>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>250000.1466489</v>
+        <v>250000.0286728608</v>
       </c>
       <c r="F9" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G9" t="n">
-        <v>249999.94039175</v>
+        <v>250000.0079516449</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I9" t="n">
-        <v>250000.0414001</v>
+        <v>250000.0079516449</v>
       </c>
       <c r="J9" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K9" t="n">
-        <v>249999.957450554</v>
+        <v>249999.9534146602</v>
       </c>
       <c r="L9" t="n">
-        <v>999955</v>
+        <v>999952</v>
       </c>
       <c r="M9" t="n">
-        <v>48999999.77964044</v>
+        <v>48999975.59227559</v>
       </c>
       <c r="N9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R9" t="n">
-        <v>31.57955240000002</v>
+        <v>10.12464120040316</v>
       </c>
       <c r="S9" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="X9" t="n">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="Y9" t="n">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="Z9" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>7.794868400000006</v>
+        <v>2.120617156486126</v>
       </c>
       <c r="AB9" t="n">
         <v>0</v>
@@ -1443,22 +1443,22 @@
         <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
         <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.04676921039936133</v>
+        <v>0.01508088692207821</v>
       </c>
       <c r="AG9" t="n">
         <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>-0.03104999999050051</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.02999999999883585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1466,106 +1466,106 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.002</v>
+        <v>0.002787133558652837</v>
       </c>
       <c r="C10" t="n">
-        <v>8.574355240000006</v>
+        <v>2.442603983747156</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>250000.17555725</v>
+        <v>250000.0286728608</v>
       </c>
       <c r="F10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" t="n">
-        <v>249999.9075001</v>
+        <v>250000.0079516449</v>
       </c>
       <c r="H10" t="n">
         <v>12</v>
       </c>
       <c r="I10" t="n">
-        <v>250000.03955845</v>
+        <v>250000.0079516449</v>
       </c>
       <c r="J10" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="K10" t="n">
-        <v>250000.0023781144</v>
+        <v>249999.966653897</v>
       </c>
       <c r="L10" t="n">
-        <v>999963</v>
+        <v>999954</v>
       </c>
       <c r="M10" t="n">
-        <v>48999999.73182124</v>
+        <v>48999975.5761447</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R10" t="n">
-        <v>34.29750764000002</v>
+        <v>10.12464120040316</v>
       </c>
       <c r="S10" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="X10" t="n">
-        <v>178</v>
+        <v>10</v>
       </c>
       <c r="Y10" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="Z10" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>8.574355240000006</v>
+        <v>2.442603983747156</v>
       </c>
       <c r="AB10" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
         <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.005396131426095963</v>
+        <v>0.02042359061306342</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.04500000001280569</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>-0.03104999999050051</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.02999999999883585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1573,106 +1573,4386 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.002</v>
+        <v>0.003051507966169775</v>
       </c>
       <c r="C11" t="n">
-        <v>9.431790764000008</v>
+        <v>1.508208551459082</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>250000.20555725</v>
+        <v>250000.0286728608</v>
       </c>
       <c r="F11" t="n">
+        <v>12</v>
+      </c>
+      <c r="G11" t="n">
+        <v>250000.0079516449</v>
+      </c>
+      <c r="H11" t="n">
+        <v>12</v>
+      </c>
+      <c r="I11" t="n">
+        <v>250000.0079516449</v>
+      </c>
+      <c r="J11" t="n">
+        <v>20</v>
+      </c>
+      <c r="K11" t="n">
+        <v>249999.9852358377</v>
+      </c>
+      <c r="L11" t="n">
+        <v>999956</v>
+      </c>
+      <c r="M11" t="n">
+        <v>48999975.55467111</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>10.12464120040316</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1</v>
+      </c>
+      <c r="W11" t="n">
+        <v>10</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1.508208551459082</v>
+      </c>
+      <c r="AB11" t="n">
         <v>11</v>
       </c>
-      <c r="G11" t="n">
-        <v>249999.8764501</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="AC11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>-0.07115953785250895</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.02183630975196138</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0.01420753984712064</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.04577261948725209</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.003390136508035759</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.353614527832719</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>250000.0744454803</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>250000.0203175347</v>
+      </c>
+      <c r="H12" t="n">
+        <v>11</v>
+      </c>
+      <c r="I12" t="n">
+        <v>250000.0279463046</v>
+      </c>
+      <c r="J12" t="n">
+        <v>28</v>
+      </c>
+      <c r="K12" t="n">
+        <v>249999.9122346498</v>
+      </c>
+      <c r="L12" t="n">
+        <v>999959</v>
+      </c>
+      <c r="M12" t="n">
+        <v>48999975.53981418</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>10.12464120040316</v>
+      </c>
+      <c r="S12" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>2.353614527832719</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.02393722362467088</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>-0.03495136508718133</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.00323179869397023</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.659109340455845</v>
+      </c>
+      <c r="D13" t="n">
+        <v>10</v>
+      </c>
+      <c r="E13" t="n">
+        <v>250000.0394941152</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>250000.0203175347</v>
+      </c>
+      <c r="H13" t="n">
+        <v>11</v>
+      </c>
+      <c r="I13" t="n">
+        <v>250000.0279463046</v>
+      </c>
+      <c r="J13" t="n">
+        <v>27</v>
+      </c>
+      <c r="K13" t="n">
+        <v>249999.9343302234</v>
+      </c>
+      <c r="L13" t="n">
+        <v>999950</v>
+      </c>
+      <c r="M13" t="n">
+        <v>48999975.54613667</v>
+      </c>
+      <c r="N13" t="n">
+        <v>10</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
-        <v>250000.0827168</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="R13" t="n">
+        <v>10.12464120040316</v>
+      </c>
+      <c r="S13" t="n">
+        <v>10</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>10</v>
+      </c>
+      <c r="X13" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>2.659109340455845</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.02578111828188412</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.004227760786896516</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3.505963238898036</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>250000.0384024652</v>
+      </c>
+      <c r="F14" t="n">
+        <v>12</v>
+      </c>
+      <c r="G14" t="n">
+        <v>250000.0203175347</v>
+      </c>
+      <c r="H14" t="n">
+        <v>11</v>
+      </c>
+      <c r="I14" t="n">
+        <v>250000.0279463046</v>
+      </c>
+      <c r="J14" t="n">
+        <v>24</v>
+      </c>
+      <c r="K14" t="n">
+        <v>249999.9582696917</v>
+      </c>
+      <c r="L14" t="n">
+        <v>999953</v>
+      </c>
+      <c r="M14" t="n">
+        <v>48999975.51930556</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>10</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>10.12464120040316</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>20</v>
+      </c>
+      <c r="X14" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>3.505963238898036</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.04446712171193212</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.004685457562822996</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3.425578881327779</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>250000.0384024652</v>
+      </c>
+      <c r="F15" t="n">
+        <v>12</v>
+      </c>
+      <c r="G15" t="n">
+        <v>250000.0203175347</v>
+      </c>
+      <c r="H15" t="n">
+        <v>11</v>
+      </c>
+      <c r="I15" t="n">
+        <v>250000.0279463046</v>
+      </c>
+      <c r="J15" t="n">
+        <v>20</v>
+      </c>
+      <c r="K15" t="n">
+        <v>250000.0008951634</v>
+      </c>
+      <c r="L15" t="n">
+        <v>999957</v>
+      </c>
+      <c r="M15" t="n">
+        <v>48999975.47378843</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>10.12464120040316</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>20</v>
+      </c>
+      <c r="X15" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>3.425578881327779</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>-0.07003522565355524</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.02237728782347403</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0.09370915126055479</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.002353106055427488</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4.033096945877301</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>250000.0384024652</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" t="n">
+        <v>250000.1121850359</v>
+      </c>
+      <c r="H16" t="n">
+        <v>11</v>
+      </c>
+      <c r="I16" t="n">
+        <v>250000.0484819424</v>
+      </c>
+      <c r="J16" t="n">
+        <v>27</v>
+      </c>
+      <c r="K16" t="n">
+        <v>249999.9290182878</v>
+      </c>
+      <c r="L16" t="n">
+        <v>999960</v>
+      </c>
+      <c r="M16" t="n">
+        <v>48999975.42458722</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>10.12464120040316</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>4.033096945877301</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.02847091454896145</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>-0.02458106057019904</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.002606480585371469</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4.444074051173112</v>
+      </c>
+      <c r="D17" t="n">
+        <v>10</v>
+      </c>
+      <c r="E17" t="n">
+        <v>250000.0138214047</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" t="n">
+        <v>250000.1121850359</v>
+      </c>
+      <c r="H17" t="n">
+        <v>11</v>
+      </c>
+      <c r="I17" t="n">
+        <v>250000.0484819424</v>
+      </c>
+      <c r="J17" t="n">
+        <v>23</v>
+      </c>
+      <c r="K17" t="n">
+        <v>249999.9556475523</v>
+      </c>
+      <c r="L17" t="n">
+        <v>999954</v>
+      </c>
+      <c r="M17" t="n">
+        <v>48999975.41600572</v>
+      </c>
+      <c r="N17" t="n">
+        <v>10</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>10.12464120040316</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>10</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>4.444074051173112</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.03475017819437198</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>-0.04014720878330991</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0.03909720879164524</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="K11" t="n">
-        <v>250000.0059325958</v>
-      </c>
-      <c r="L11" t="n">
+      <c r="B18" t="n">
+        <v>0.002962598755910767</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4.444228231431118</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>250000.0518269635</v>
+      </c>
+      <c r="F18" t="n">
+        <v>12</v>
+      </c>
+      <c r="G18" t="n">
+        <v>250000.0720378272</v>
+      </c>
+      <c r="H18" t="n">
+        <v>11</v>
+      </c>
+      <c r="I18" t="n">
+        <v>250000.0484819424</v>
+      </c>
+      <c r="J18" t="n">
+        <v>19</v>
+      </c>
+      <c r="K18" t="n">
+        <v>249999.9885560805</v>
+      </c>
+      <c r="L18" t="n">
+        <v>999958</v>
+      </c>
+      <c r="M18" t="n">
+        <v>48999975.38020553</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>10</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>10.12464120040316</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1</v>
+      </c>
+      <c r="W18" t="n">
+        <v>20</v>
+      </c>
+      <c r="X18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>4.444228231431118</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0.03104289819020778</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0.007406496879411861</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.002200844675447898</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.603617508530619</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>250000.0518269635</v>
+      </c>
+      <c r="F19" t="n">
+        <v>12</v>
+      </c>
+      <c r="G19" t="n">
+        <v>250000.0720378272</v>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+      <c r="I19" t="n">
+        <v>250000.0540467893</v>
+      </c>
+      <c r="J19" t="n">
+        <v>15</v>
+      </c>
+      <c r="K19" t="n">
+        <v>250000.0177573287</v>
+      </c>
+      <c r="L19" t="n">
+        <v>999963</v>
+      </c>
+      <c r="M19" t="n">
+        <v>48999975.33965614</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>10.12464120040316</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>20</v>
+      </c>
+      <c r="X19" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>3.603617508530619</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>-0.026775997976074</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0.004452111694263294</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0.04401689351652749</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.002969509047959094</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5.197591977444547</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>250000.0518269635</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" t="n">
+        <v>250000.1142130707</v>
+      </c>
+      <c r="H20" t="n">
+        <v>11</v>
+      </c>
+      <c r="I20" t="n">
+        <v>250000.056657251</v>
+      </c>
+      <c r="J20" t="n">
+        <v>20</v>
+      </c>
+      <c r="K20" t="n">
+        <v>249999.9891396807</v>
+      </c>
+      <c r="L20" t="n">
+        <v>999967</v>
+      </c>
+      <c r="M20" t="n">
+        <v>48999975.31481314</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>10.12464120040316</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>10</v>
+      </c>
+      <c r="X20" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>5.197591977444547</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.04630288924090564</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.003673629277445628</v>
+      </c>
+      <c r="C21" t="n">
+        <v>4.388136832900476</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>250000.0518269635</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" t="n">
+        <v>250000.1142130707</v>
+      </c>
+      <c r="H21" t="n">
+        <v>11</v>
+      </c>
+      <c r="I21" t="n">
+        <v>250000.056657251</v>
+      </c>
+      <c r="J21" t="n">
+        <v>15</v>
+      </c>
+      <c r="K21" t="n">
+        <v>250000.0336009199</v>
+      </c>
+      <c r="L21" t="n">
         <v>999972</v>
       </c>
-      <c r="M11" t="n">
-        <v>48999999.6793251</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="M21" t="n">
+        <v>48999975.26746024</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>10.12464120040316</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>10</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>4.388136832900476</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.04836116384831257</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>-0.05615443916758522</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0.05510443914681673</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.003501092556336657</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.181788263273847</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>250000.1069314026</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" t="n">
+        <v>250000.0580586315</v>
+      </c>
+      <c r="H22" t="n">
+        <v>11</v>
+      </c>
+      <c r="I22" t="n">
+        <v>250000.056657251</v>
+      </c>
+      <c r="J22" t="n">
+        <v>11</v>
+      </c>
+      <c r="K22" t="n">
+        <v>250000.0801204338</v>
+      </c>
+      <c r="L22" t="n">
+        <v>999976</v>
+      </c>
+      <c r="M22" t="n">
+        <v>48999975.21804908</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>10.12464120040316</v>
+      </c>
+      <c r="S22" t="n">
+        <v>10</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z22" t="n">
         <v>9</v>
       </c>
-      <c r="R11" t="n">
-        <v>37.28725840400002</v>
-      </c>
-      <c r="S11" t="n">
-        <v>51</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
+      <c r="AA22" t="n">
+        <v>3.181788263273847</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.0236164742091205</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.008752731402637437</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>-0.03606092557311058</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.002836101507903854</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.928589238895237</v>
+      </c>
+      <c r="D23" t="n">
+        <v>10</v>
+      </c>
+      <c r="E23" t="n">
+        <v>250000.070870477</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" t="n">
+        <v>250000.0580586315</v>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+      <c r="I23" t="n">
+        <v>250000.0635683324</v>
+      </c>
+      <c r="J23" t="n">
+        <v>9</v>
+      </c>
+      <c r="K23" t="n">
+        <v>250000.101895258</v>
+      </c>
+      <c r="L23" t="n">
+        <v>999969</v>
+      </c>
+      <c r="M23" t="n">
+        <v>48999975.21599915</v>
+      </c>
+      <c r="N23" t="n">
+        <v>10</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>10.12464120040316</v>
+      </c>
+      <c r="S23" t="n">
+        <v>10</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>10</v>
+      </c>
+      <c r="X23" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>2.928589238895237</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>-0.03994495485676453</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0.006040253763785586</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0.05672203016001731</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.002948133986113878</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.697703488972917</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>250000.069778827</v>
+      </c>
+      <c r="F24" t="n">
+        <v>10</v>
+      </c>
+      <c r="G24" t="n">
+        <v>250000.1129390117</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+      <c r="I24" t="n">
+        <v>250000.0677669362</v>
+      </c>
+      <c r="J24" t="n">
+        <v>15</v>
+      </c>
+      <c r="K24" t="n">
+        <v>250000.0601086532</v>
+      </c>
+      <c r="L24" t="n">
+        <v>999972</v>
+      </c>
+      <c r="M24" t="n">
+        <v>48999975.19003182</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>10</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>10.12464120040316</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>8</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>20</v>
+      </c>
+      <c r="X24" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>2.697703488972917</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0.0238595740229357</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.004680417250578036</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4.04858221994877</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>250000.069778827</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2</v>
+      </c>
+      <c r="G25" t="n">
+        <v>250000.1110973617</v>
+      </c>
+      <c r="H25" t="n">
+        <v>11</v>
+      </c>
+      <c r="I25" t="n">
+        <v>250000.0677669362</v>
+      </c>
+      <c r="J25" t="n">
+        <v>12</v>
+      </c>
+      <c r="K25" t="n">
+        <v>250000.0821265772</v>
+      </c>
+      <c r="L25" t="n">
+        <v>999975</v>
+      </c>
+      <c r="M25" t="n">
+        <v>48999975.16512225</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>10.12464120040316</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>20</v>
+      </c>
+      <c r="X25" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>4.04858221994877</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.05684716219548136</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.004011401919753603</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3.610895208108976</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>250000.069778827</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" t="n">
+        <v>250000.1110973617</v>
+      </c>
+      <c r="H26" t="n">
+        <v>11</v>
+      </c>
+      <c r="I26" t="n">
+        <v>250000.0677669362</v>
+      </c>
+      <c r="J26" t="n">
+        <v>8</v>
+      </c>
+      <c r="K26" t="n">
+        <v>250000.1371320894</v>
+      </c>
+      <c r="L26" t="n">
+        <v>999979</v>
+      </c>
+      <c r="M26" t="n">
+        <v>48999975.10722508</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>10.12464120040316</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>3.610895208108976</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0.03237575112143531</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0.01002850479562767</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>-0.04116401920327917</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.004474763168542307</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3.421098946631788</v>
+      </c>
+      <c r="D27" t="n">
+        <v>10</v>
+      </c>
+      <c r="E27" t="n">
+        <v>250000.0286148078</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" t="n">
+        <v>250000.1110973617</v>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+      <c r="I27" t="n">
+        <v>250000.075953791</v>
+      </c>
+      <c r="J27" t="n">
+        <v>5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>250000.1676661904</v>
+      </c>
+      <c r="L27" t="n">
+        <v>999973</v>
+      </c>
+      <c r="M27" t="n">
+        <v>48999975.1002432</v>
+      </c>
+      <c r="N27" t="n">
+        <v>10</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>10.12464120040316</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>10</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>3.421098946631788</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>-0.05580634859506972</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0.08173311862628907</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>-0.05027239484479651</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0.06712144752964377</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.006847777160543198</v>
+      </c>
+      <c r="C28" t="n">
+        <v>4.026645823324634</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>250000.0946446054</v>
+      </c>
+      <c r="F28" t="n">
+        <v>10</v>
+      </c>
+      <c r="G28" t="n">
+        <v>250000.0589833168</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+      <c r="I28" t="n">
+        <v>250000.1558452596</v>
+      </c>
+      <c r="J28" t="n">
+        <v>11</v>
+      </c>
+      <c r="K28" t="n">
+        <v>250000.1100181919</v>
+      </c>
+      <c r="L28" t="n">
+        <v>999976</v>
+      </c>
+      <c r="M28" t="n">
+        <v>48999975.05326737</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>10</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>10.12464120040316</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>20</v>
+      </c>
+      <c r="X28" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>4.026645823324634</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0.08272071988903917</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>-0.1106144345540088</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0.1095644345914479</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.006220120997175095</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.586494957688376</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>250000.0946446054</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2</v>
+      </c>
+      <c r="G29" t="n">
+        <v>250000.1667061014</v>
+      </c>
+      <c r="H29" t="n">
+        <v>11</v>
+      </c>
+      <c r="I29" t="n">
+        <v>250000.045230825</v>
+      </c>
+      <c r="J29" t="n">
+        <v>7</v>
+      </c>
+      <c r="K29" t="n">
+        <v>250000.1908972618</v>
+      </c>
+      <c r="L29" t="n">
+        <v>999980</v>
+      </c>
+      <c r="M29" t="n">
+        <v>48999974.96949666</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>10.12464120040316</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>20</v>
+      </c>
+      <c r="X29" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1.586494957688376</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0.02960457181325182</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.006750970984811516</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.775325690664738</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>250000.0946446054</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" t="n">
+        <v>250000.1667061014</v>
+      </c>
+      <c r="H30" t="n">
+        <v>11</v>
+      </c>
+      <c r="I30" t="n">
+        <v>250000.045230825</v>
+      </c>
+      <c r="J30" t="n">
+        <v>5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>250000.2186601836</v>
+      </c>
+      <c r="L30" t="n">
+        <v>999982</v>
+      </c>
+      <c r="M30" t="n">
+        <v>48999974.93884209</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" t="n">
+        <v>10.12464120040316</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>10</v>
+      </c>
+      <c r="X30" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>1.775325690664738</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0.01802808919455856</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0.01687742746435106</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.00835223757824962</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.938938886891447</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>250000.0946446054</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" t="n">
+        <v>250000.1667061014</v>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+      <c r="I31" t="n">
+        <v>250000.0602666025</v>
+      </c>
+      <c r="J31" t="n">
+        <v>4</v>
+      </c>
+      <c r="K31" t="n">
+        <v>250000.2348466228</v>
+      </c>
+      <c r="L31" t="n">
+        <v>999984</v>
+      </c>
+      <c r="M31" t="n">
+        <v>48999974.90183657</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2</v>
+      </c>
+      <c r="R31" t="n">
+        <v>10.12464120040316</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
         <v>-1</v>
       </c>
-      <c r="W11" t="n">
+      <c r="W31" t="n">
+        <v>10</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>1.938938886891447</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>-0.1195113168505486</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0.1325858012423851</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>-0.09292461336008273</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0.1252835636551026</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.01067233101280535</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.891380587437746</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>250000.219928169</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>250000.072689838</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+      <c r="I32" t="n">
+        <v>250000.1910107537</v>
+      </c>
+      <c r="J32" t="n">
+        <v>11</v>
+      </c>
+      <c r="K32" t="n">
+        <v>250000.1134936559</v>
+      </c>
+      <c r="L32" t="n">
+        <v>999985</v>
+      </c>
+      <c r="M32" t="n">
+        <v>48999974.85220313</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" t="n">
+        <v>10.12464120040316</v>
+      </c>
+      <c r="S32" t="n">
+        <v>10</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>1.891380587437746</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0.03282549159484915</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>-0.1451264686766081</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0.1707572962041013</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>-0.1077733101265039</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.01094375408147404</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.179643401544199</v>
+      </c>
+      <c r="D33" t="n">
+        <v>10</v>
+      </c>
+      <c r="E33" t="n">
+        <v>250000.1121548589</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>250000.2434471342</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+      <c r="I33" t="n">
+        <v>250000.0440426351</v>
+      </c>
+      <c r="J33" t="n">
+        <v>10</v>
+      </c>
+      <c r="K33" t="n">
+        <v>250000.1444774975</v>
+      </c>
+      <c r="L33" t="n">
+        <v>999977</v>
+      </c>
+      <c r="M33" t="n">
+        <v>48999974.89472847</v>
+      </c>
+      <c r="N33" t="n">
+        <v>10</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" t="n">
+        <v>10.12464120040316</v>
+      </c>
+      <c r="S33" t="n">
+        <v>10</v>
+      </c>
+      <c r="T33" t="n">
+        <v>8</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>10</v>
+      </c>
+      <c r="X33" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>1.179643401544199</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0.03872918189154007</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.01156637681526276</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.482061069536306</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>250000.1103132089</v>
+      </c>
+      <c r="F34" t="n">
+        <v>10</v>
+      </c>
+      <c r="G34" t="n">
+        <v>250000.2434471342</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+      <c r="I34" t="n">
+        <v>250000.0440426351</v>
+      </c>
+      <c r="J34" t="n">
+        <v>9</v>
+      </c>
+      <c r="K34" t="n">
+        <v>250000.1813650294</v>
+      </c>
+      <c r="L34" t="n">
+        <v>999978</v>
+      </c>
+      <c r="M34" t="n">
+        <v>48999974.8549493</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>10</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>10.12464120040316</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>8</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>20</v>
+      </c>
+      <c r="X34" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>1.482061069536306</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0.02146028832066804</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0.02891594203538261</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.01023977895781862</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.393986016258128</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>250000.1103132089</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2</v>
+      </c>
+      <c r="G35" t="n">
+        <v>250000.2416054842</v>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+      <c r="I35" t="n">
+        <v>250000.0711169271</v>
+      </c>
+      <c r="J35" t="n">
+        <v>9</v>
+      </c>
+      <c r="K35" t="n">
+        <v>250000.2009836677</v>
+      </c>
+      <c r="L35" t="n">
+        <v>999979</v>
+      </c>
+      <c r="M35" t="n">
+        <v>48999974.80247306</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>10.12464120040316</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1</v>
+      </c>
+      <c r="W35" t="n">
+        <v>20</v>
+      </c>
+      <c r="X35" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>1.393986016258128</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>-0.1886227005161345</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0.2303950265340973</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.01323387037937856</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.961460478750572</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>250000.1103132089</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2</v>
+      </c>
+      <c r="G36" t="n">
+        <v>250000.2416054842</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>250000.2996703036</v>
+      </c>
+      <c r="J36" t="n">
+        <v>16</v>
+      </c>
+      <c r="K36" t="n">
+        <v>250000.0105193172</v>
+      </c>
+      <c r="L36" t="n">
+        <v>999981</v>
+      </c>
+      <c r="M36" t="n">
+        <v>48999974.75860073</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2</v>
+      </c>
+      <c r="R36" t="n">
+        <v>10.12464120040316</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>1.961460478750572</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0.07787314118468203</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>-0.1333887037762906</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.01594693315996665</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2.349407545440378</v>
+      </c>
+      <c r="D37" t="n">
+        <v>10</v>
+      </c>
+      <c r="E37" t="n">
+        <v>249999.9769245051</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2</v>
+      </c>
+      <c r="G37" t="n">
+        <v>250000.2416054842</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>250000.2996703036</v>
+      </c>
+      <c r="J37" t="n">
         <v>14</v>
       </c>
-      <c r="X11" t="n">
-        <v>202</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z11" t="n">
+      <c r="K37" t="n">
+        <v>250000.0865508084</v>
+      </c>
+      <c r="L37" t="n">
+        <v>999973</v>
+      </c>
+      <c r="M37" t="n">
+        <v>48999974.80942465</v>
+      </c>
+      <c r="N37" t="n">
+        <v>10</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" t="n">
+        <v>10.12464120040316</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>10</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>2.349407545440378</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0.1123975352675188</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>-0.06483773264335468</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>-0.1764662647619843</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0.2392039973929059</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.0242958583028614</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2.605861752573344</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>250000.2150368525</v>
+      </c>
+      <c r="F38" t="n">
+        <v>10</v>
+      </c>
+      <c r="G38" t="n">
+        <v>250000.0632975695</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+      <c r="I38" t="n">
+        <v>250000.234832571</v>
+      </c>
+      <c r="J38" t="n">
+        <v>12</v>
+      </c>
+      <c r="K38" t="n">
+        <v>250000.1971066936</v>
+      </c>
+      <c r="L38" t="n">
+        <v>999975</v>
+      </c>
+      <c r="M38" t="n">
+        <v>48999974.69597711</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>10</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2</v>
+      </c>
+      <c r="R38" t="n">
+        <v>10.12464120040316</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1</v>
+      </c>
+      <c r="W38" t="n">
+        <v>20</v>
+      </c>
+      <c r="X38" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>2.605861752573344</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0.06740565216750838</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>-0.2683044413279276</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0.3887337328342255</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.02679233071735202</v>
+      </c>
+      <c r="C39" t="n">
+        <v>3.230138013818082</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>250000.2150368525</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2</v>
+      </c>
+      <c r="G39" t="n">
+        <v>250000.4501896523</v>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+      <c r="I39" t="n">
+        <v>249999.9646864797</v>
+      </c>
+      <c r="J39" t="n">
+        <v>10</v>
+      </c>
+      <c r="K39" t="n">
+        <v>250000.2626706958</v>
+      </c>
+      <c r="L39" t="n">
+        <v>999979</v>
+      </c>
+      <c r="M39" t="n">
+        <v>48999974.50499217</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>10.12464120040316</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W39" t="n">
+        <v>20</v>
+      </c>
+      <c r="X39" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>3.230138013818082</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>-0.2102870097733103</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0.468865787552204</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.03865157154285293</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.237339056967489</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>250000.2150368525</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2</v>
+      </c>
+      <c r="G40" t="n">
+        <v>250000.4501896523</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+      <c r="I40" t="n">
+        <v>250000.4317106172</v>
+      </c>
+      <c r="J40" t="n">
+        <v>15</v>
+      </c>
+      <c r="K40" t="n">
+        <v>250000.050542036</v>
+      </c>
+      <c r="L40" t="n">
+        <v>999981</v>
+      </c>
+      <c r="M40" t="n">
+        <v>48999974.24431339</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2</v>
+      </c>
+      <c r="R40" t="n">
+        <v>10.12464120040316</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>10</v>
+      </c>
+      <c r="X40" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>1.237339056967489</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0.04579636838752776</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0.09662892884807661</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.03988459843762891</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.3171092507642</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>250000.2150368525</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2</v>
+      </c>
+      <c r="G41" t="n">
+        <v>250000.4501896523</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>250000.5264978961</v>
+      </c>
+      <c r="J41" t="n">
+        <v>15</v>
+      </c>
+      <c r="K41" t="n">
+        <v>250000.0944967544</v>
+      </c>
+      <c r="L41" t="n">
+        <v>999982</v>
+      </c>
+      <c r="M41" t="n">
+        <v>48999974.09978809</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>10.12464120040316</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1</v>
+      </c>
+      <c r="W41" t="n">
+        <v>10</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>1.3171092507642</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0.05683562462218106</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>-0.06087689765263349</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>-0.4397805828193668</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0.5982689765805844</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.03924387757326664</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1.952276359573872</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>250000.8133058291</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>250000.0093174195</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+      <c r="I42" t="n">
+        <v>250000.4637793484</v>
+      </c>
+      <c r="J42" t="n">
+        <v>14</v>
+      </c>
+      <c r="K42" t="n">
+        <v>250000.149490729</v>
+      </c>
+      <c r="L42" t="n">
+        <v>999984</v>
+      </c>
+      <c r="M42" t="n">
+        <v>48999973.94114097</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2</v>
+      </c>
+      <c r="R42" t="n">
+        <v>10.12464120040316</v>
+      </c>
+      <c r="S42" t="n">
+        <v>10</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>1.952276359573872</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0.1306849894172046</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>-0.5308423472451977</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0.6279020411602687</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>-0.3934887757350225</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.04094115741711174</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2.831710885163292</v>
+      </c>
+      <c r="D43" t="n">
+        <v>10</v>
+      </c>
+      <c r="E43" t="n">
+        <v>250000.4198170534</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>250000.6372194607</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>249999.9310953512</v>
+      </c>
+      <c r="J43" t="n">
+        <v>13</v>
+      </c>
+      <c r="K43" t="n">
+        <v>250000.2783340685</v>
+      </c>
+      <c r="L43" t="n">
+        <v>999976</v>
+      </c>
+      <c r="M43" t="n">
+        <v>48999974.10009342</v>
+      </c>
+      <c r="N43" t="n">
+        <v>10</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2</v>
+      </c>
+      <c r="R43" t="n">
+        <v>10.12464120040316</v>
+      </c>
+      <c r="S43" t="n">
+        <v>10</v>
+      </c>
+      <c r="T43" t="n">
+        <v>8</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>10</v>
+      </c>
+      <c r="X43" t="n">
         <v>22</v>
       </c>
-      <c r="AA11" t="n">
-        <v>9.431790764000008</v>
-      </c>
-      <c r="AB11" t="n">
+      <c r="Y43" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>2.831710885163292</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>-0.369719691487262</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0.7164702547888737</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.04750249792217186</v>
+      </c>
+      <c r="C44" t="n">
+        <v>3.391055137853103</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>250000.4179754034</v>
+      </c>
+      <c r="F44" t="n">
+        <v>10</v>
+      </c>
+      <c r="G44" t="n">
+        <v>250000.6372194607</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>250000.646473956</v>
+      </c>
+      <c r="J44" t="n">
+        <v>11</v>
+      </c>
+      <c r="K44" t="n">
+        <v>249999.906772727</v>
+      </c>
+      <c r="L44" t="n">
+        <v>999979</v>
+      </c>
+      <c r="M44" t="n">
+        <v>48999973.75124285</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>10</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>10.12464120040316</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>8</v>
+      </c>
+      <c r="U44" t="n">
+        <v>6</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>20</v>
+      </c>
+      <c r="X44" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z44" t="n">
         <v>15</v>
       </c>
-      <c r="AC11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>-0.01945925541804172</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>0.03394999998272397</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>0.02395000000251457</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>-0.03205000000889413</v>
+      <c r="AA44" t="n">
+        <v>3.391055137853103</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0.4832507689134218</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.0186787992319473</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2.215076096208143</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>250000.4179754034</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2</v>
+      </c>
+      <c r="G45" t="n">
+        <v>250000.6346278107</v>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+      <c r="I45" t="n">
+        <v>250000.646473956</v>
+      </c>
+      <c r="J45" t="n">
+        <v>8</v>
+      </c>
+      <c r="K45" t="n">
+        <v>250000.3881818459</v>
+      </c>
+      <c r="L45" t="n">
+        <v>999982</v>
+      </c>
+      <c r="M45" t="n">
+        <v>48999973.26694208</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>10.12464120040316</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>6</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>20</v>
+      </c>
+      <c r="X45" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>2.215076096208143</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0.1241248850419652</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.02506545847520274</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1.974909736002937</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>250000.4179754034</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2</v>
+      </c>
+      <c r="G46" t="n">
+        <v>250000.6346278107</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+      <c r="I46" t="n">
+        <v>250000.644632306</v>
+      </c>
+      <c r="J46" t="n">
+        <v>12</v>
+      </c>
+      <c r="K46" t="n">
+        <v>250000.5104650809</v>
+      </c>
+      <c r="L46" t="n">
+        <v>999984</v>
+      </c>
+      <c r="M46" t="n">
+        <v>48999973.1417672</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2</v>
+      </c>
+      <c r="R46" t="n">
+        <v>10.12464120040316</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>1.974909736002937</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0.1485060539562255</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>-0.2517045847489499</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.02361855026207977</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.9374708216223253</v>
+      </c>
+      <c r="D47" t="n">
+        <v>10</v>
+      </c>
+      <c r="E47" t="n">
+        <v>250000.1662708186</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2</v>
+      </c>
+      <c r="G47" t="n">
+        <v>250000.6346278107</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+      <c r="I47" t="n">
+        <v>250000.644632306</v>
+      </c>
+      <c r="J47" t="n">
+        <v>10</v>
+      </c>
+      <c r="K47" t="n">
+        <v>250000.6571294849</v>
+      </c>
+      <c r="L47" t="n">
+        <v>999976</v>
+      </c>
+      <c r="M47" t="n">
+        <v>48999973.24027408</v>
+      </c>
+      <c r="N47" t="n">
+        <v>10</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2</v>
+      </c>
+      <c r="R47" t="n">
+        <v>10.12464120040316</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>10</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0.9374708216223253</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>0.06642510514939204</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>-0.0955242010531947</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>-0.2608540528744925</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>0.354278253915254</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.01489109914072533</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1.45094935277023</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>250000.5194574225</v>
+      </c>
+      <c r="F48" t="n">
+        <v>10</v>
+      </c>
+      <c r="G48" t="n">
+        <v>250000.3719321078</v>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+      <c r="I48" t="n">
+        <v>250000.549108105</v>
+      </c>
+      <c r="J48" t="n">
+        <v>9</v>
+      </c>
+      <c r="K48" t="n">
+        <v>250000.7217129401</v>
+      </c>
+      <c r="L48" t="n">
+        <v>999977</v>
+      </c>
+      <c r="M48" t="n">
+        <v>48999973.17279898</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>10</v>
+      </c>
+      <c r="P48" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" t="n">
+        <v>10.12464120040316</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>20</v>
+      </c>
+      <c r="X48" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>1.45094935277023</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>-0.08514229944557883</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>-0.09039659486734308</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>0.2382575862575322</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.01086282351978309</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1.718235658932127</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>250000.5194574225</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G49" t="n">
+        <v>250000.608348044</v>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+      <c r="I49" t="n">
+        <v>250000.4568698601</v>
+      </c>
+      <c r="J49" t="n">
+        <v>12</v>
+      </c>
+      <c r="K49" t="n">
+        <v>250000.6347289906</v>
+      </c>
+      <c r="L49" t="n">
+        <v>999978</v>
+      </c>
+      <c r="M49" t="n">
+        <v>48999973.10693029</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1</v>
+      </c>
+      <c r="R49" t="n">
+        <v>10.12464120040316</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>1</v>
+      </c>
+      <c r="W49" t="n">
+        <v>20</v>
+      </c>
+      <c r="X49" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>1.718235658932127</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>-0.1351547394006047</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>0.1900994116149377</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.0120203864722199</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1.513956555412262</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>250000.5194574225</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2</v>
+      </c>
+      <c r="G50" t="n">
+        <v>250000.608348044</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>250000.6451276217</v>
+      </c>
+      <c r="J50" t="n">
+        <v>16</v>
+      </c>
+      <c r="K50" t="n">
+        <v>250000.4977326012</v>
+      </c>
+      <c r="L50" t="n">
+        <v>999981</v>
+      </c>
+      <c r="M50" t="n">
+        <v>48999973.04988561</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>10.12464120040316</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="n">
+        <v>10</v>
+      </c>
+      <c r="X50" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>1.513956555412262</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>0.05459502869052812</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.01120535224710867</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1.041499633288539</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>250000.5194574225</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2</v>
+      </c>
+      <c r="G51" t="n">
+        <v>250000.608348044</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>250000.6451276217</v>
+      </c>
+      <c r="J51" t="n">
+        <v>14</v>
+      </c>
+      <c r="K51" t="n">
+        <v>250000.5504859799</v>
+      </c>
+      <c r="L51" t="n">
+        <v>999983</v>
+      </c>
+      <c r="M51" t="n">
+        <v>48999972.99424058</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2</v>
+      </c>
+      <c r="R51" t="n">
+        <v>10.12464120040316</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W51" t="n">
+        <v>10</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>1.041499633288539</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>0.03501111076911911</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>-0.04587140897638164</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>-0.1243088747141883</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>0.1680802837072406</v>
       </c>
     </row>
   </sheetData>

--- a/match.xlsx
+++ b/match.xlsx
@@ -610,10 +610,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.001739632974144776</v>
+        <v>0.001652242864656578</v>
       </c>
       <c r="C2" t="n">
-        <v>2.575731257622808</v>
+        <v>5.373713438488481</v>
       </c>
       <c r="D2" t="n">
         <v>12</v>
@@ -637,28 +637,28 @@
         <v>12</v>
       </c>
       <c r="K2" t="n">
-        <v>249999.99785835</v>
+        <v>249999.99785775</v>
       </c>
       <c r="L2" t="n">
         <v>999952</v>
       </c>
       <c r="M2" t="n">
-        <v>48999975.6471994</v>
+        <v>48999972.24467155</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R2" t="n">
-        <v>14.24621657240584</v>
+        <v>77.22897918337137</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -685,31 +685,31 @@
         <v>12</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.575731257622808</v>
+        <v>5</v>
       </c>
       <c r="AB2" t="n">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="AC2" t="n">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="AD2" t="n">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="AE2" t="n">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.0036943162267562</v>
+        <v>-0.244755822524894</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.0006896329869050533</v>
+        <v>0.05264789311331697</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0006896329869050533</v>
+        <v>0.05264789311331697</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0006896329578012228</v>
+        <v>0.05264789308421314</v>
       </c>
     </row>
     <row r="3">
@@ -717,85 +717,85 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.001622765785417152</v>
+        <v>0.001702327318998879</v>
       </c>
       <c r="C3" t="n">
-        <v>1.658026047166465</v>
+        <v>4.945190821560275</v>
       </c>
       <c r="D3" t="n">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="E3" t="n">
-        <v>249999.997797983</v>
+        <v>250000.0497562431</v>
       </c>
       <c r="F3" t="n">
         <v>12</v>
       </c>
       <c r="G3" t="n">
-        <v>249999.996706333</v>
+        <v>250000.0486645931</v>
       </c>
       <c r="H3" t="n">
         <v>12</v>
       </c>
       <c r="I3" t="n">
-        <v>249999.996706333</v>
+        <v>250000.0486645931</v>
       </c>
       <c r="J3" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K3" t="n">
-        <v>249999.9997110162</v>
+        <v>249999.7512602775</v>
       </c>
       <c r="L3" t="n">
-        <v>999953</v>
+        <v>999892</v>
       </c>
       <c r="M3" t="n">
-        <v>48999975.63434453</v>
+        <v>48999972.32439204</v>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="Q3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R3" t="n">
-        <v>14.24621657240584</v>
+        <v>77.22897918337137</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="X3" t="n">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="n">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="Z3" t="n">
-        <v>2</v>
+        <v>118</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.658026047166465</v>
+        <v>5</v>
       </c>
       <c r="AB3" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
         <v>12</v>
@@ -804,19 +804,19 @@
         <v>12</v>
       </c>
       <c r="AE3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.04166120974696241</v>
+        <v>0.02553490977152251</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.008686594694154337</v>
+        <v>-0.0419058556726668</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.008686594694154337</v>
+        <v>0.009163963899482042</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.01193212627549656</v>
+        <v>0.03064189173164777</v>
       </c>
     </row>
     <row r="4">
@@ -824,82 +824,82 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.002288864876071324</v>
+        <v>0.001746844112706299</v>
       </c>
       <c r="C4" t="n">
-        <v>1.29811501398614</v>
+        <v>7.125424150837755</v>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>250000.0078884593</v>
+        <v>250000.0793064848</v>
       </c>
       <c r="F4" t="n">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="G4" t="n">
-        <v>250000.0035512777</v>
+        <v>250000.055986907</v>
       </c>
       <c r="H4" t="n">
         <v>12</v>
       </c>
       <c r="I4" t="n">
-        <v>250000.0035512777</v>
+        <v>250000.0049170874</v>
       </c>
       <c r="J4" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K4" t="n">
-        <v>249999.9562081565</v>
+        <v>249999.7749535372</v>
       </c>
       <c r="L4" t="n">
-        <v>999945</v>
+        <v>999897</v>
       </c>
       <c r="M4" t="n">
-        <v>48999975.63960878</v>
+        <v>48999972.29780713</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R4" t="n">
-        <v>14.24621657240584</v>
+        <v>77.22897918337137</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="V4" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>26</v>
+        <v>142</v>
       </c>
       <c r="X4" t="n">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="n">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="Z4" t="n">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.29811501398614</v>
+        <v>7</v>
       </c>
       <c r="AB4" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.008913629571907222</v>
+        <v>0.03668372638639994</v>
       </c>
       <c r="AG4" t="n">
         <v>0</v>
@@ -931,40 +931,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.001346985006162508</v>
+        <v>0.001996697950319338</v>
       </c>
       <c r="C5" t="n">
-        <v>1.349144356967332</v>
+        <v>9.723599219852755</v>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>250000.0078884593</v>
+        <v>250000.0793064848</v>
       </c>
       <c r="F5" t="n">
         <v>12</v>
       </c>
       <c r="G5" t="n">
-        <v>250000.0035512777</v>
+        <v>250000.054145257</v>
       </c>
       <c r="H5" t="n">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I5" t="n">
-        <v>250000.0035512777</v>
+        <v>250000.0030754374</v>
       </c>
       <c r="J5" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K5" t="n">
-        <v>249999.9651217861</v>
+        <v>249999.8097956136</v>
       </c>
       <c r="L5" t="n">
-        <v>999945</v>
+        <v>999904</v>
       </c>
       <c r="M5" t="n">
-        <v>48999975.62964515</v>
+        <v>48999972.26007341</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -976,10 +976,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R5" t="n">
-        <v>10.12464120040316</v>
+        <v>130.5331820469466</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -988,49 +988,49 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>142</v>
+      </c>
+      <c r="X5" t="n">
+        <v>130</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>154</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>188</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
         <v>1</v>
       </c>
-      <c r="W5" t="n">
-        <v>26</v>
-      </c>
-      <c r="X5" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>1.349144356967332</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
       <c r="AE5" t="n">
         <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.00545183167560026</v>
+        <v>0.05990093853324652</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>-0.004045046924147755</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>0.002995046932483092</v>
       </c>
     </row>
     <row r="6">
@@ -1038,58 +1038,58 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.001576730869142232</v>
+        <v>0.002102553259184748</v>
       </c>
       <c r="C6" t="n">
-        <v>1.232263576724099</v>
+        <v>12.38750324768356</v>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>250000.0078884593</v>
+        <v>250000.0823015318</v>
       </c>
       <c r="F6" t="n">
         <v>12</v>
       </c>
       <c r="G6" t="n">
-        <v>250000.0035512777</v>
+        <v>250000.0501002101</v>
       </c>
       <c r="H6" t="n">
+        <v>24</v>
+      </c>
+      <c r="I6" t="n">
+        <v>250000.0012337875</v>
+      </c>
+      <c r="J6" t="n">
+        <v>50</v>
+      </c>
+      <c r="K6" t="n">
+        <v>249999.8678549021</v>
+      </c>
+      <c r="L6" t="n">
+        <v>999914</v>
+      </c>
+      <c r="M6" t="n">
+        <v>48999972.19912247</v>
+      </c>
+      <c r="N6" t="n">
+        <v>54</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>12</v>
       </c>
-      <c r="I6" t="n">
-        <v>250000.0035512777</v>
-      </c>
-      <c r="J6" t="n">
-        <v>19</v>
-      </c>
-      <c r="K6" t="n">
-        <v>249999.9687319677</v>
-      </c>
-      <c r="L6" t="n">
-        <v>999947</v>
-      </c>
-      <c r="M6" t="n">
-        <v>48999975.62314332</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="R6" t="n">
-        <v>10.12464120040316</v>
+        <v>130.5331820469466</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1101,43 +1101,43 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="X6" t="n">
+        <v>67</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>118</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>123</v>
+      </c>
+      <c r="AA6" t="n">
         <v>12</v>
       </c>
-      <c r="Y6" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>1.232263576724099</v>
-      </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.00582884406321682</v>
+        <v>0.0325908521481324</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>-0.01366531956591643</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>-0.1482287281542085</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>0.08725723688257858</v>
       </c>
     </row>
     <row r="7">
@@ -1145,106 +1145,106 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.001458403437060391</v>
+        <v>0.001444071305264755</v>
       </c>
       <c r="C7" t="n">
-        <v>1.789222550286024</v>
+        <v>11.65283642999544</v>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E7" t="n">
-        <v>250000.0078884593</v>
+        <v>250000.1695587687</v>
       </c>
       <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>249999.900779832</v>
+      </c>
+      <c r="H7" t="n">
+        <v>28</v>
+      </c>
+      <c r="I7" t="n">
+        <v>249999.9857268179</v>
+      </c>
+      <c r="J7" t="n">
+        <v>46</v>
+      </c>
+      <c r="K7" t="n">
+        <v>249999.8986041043</v>
+      </c>
+      <c r="L7" t="n">
+        <v>999872</v>
+      </c>
+      <c r="M7" t="n">
+        <v>48999972.23332678</v>
+      </c>
+      <c r="N7" t="n">
+        <v>65</v>
+      </c>
+      <c r="O7" t="n">
+        <v>54</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>12</v>
       </c>
-      <c r="G7" t="n">
-        <v>250000.0035512777</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="R7" t="n">
+        <v>130.5331820469466</v>
+      </c>
+      <c r="S7" t="n">
+        <v>65</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>66</v>
+      </c>
+      <c r="X7" t="n">
+        <v>130</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>67</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>78</v>
+      </c>
+      <c r="AA7" t="n">
         <v>12</v>
       </c>
-      <c r="I7" t="n">
-        <v>250000.0035512777</v>
-      </c>
-      <c r="J7" t="n">
-        <v>18</v>
-      </c>
-      <c r="K7" t="n">
-        <v>249999.9727191618</v>
-      </c>
-      <c r="L7" t="n">
-        <v>999948</v>
-      </c>
-      <c r="M7" t="n">
-        <v>48999975.61626447</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="AB7" t="n">
+        <v>53</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>64</v>
+      </c>
+      <c r="AD7" t="n">
         <v>1</v>
       </c>
-      <c r="R7" t="n">
-        <v>10.12464120040316</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>12</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1.789222550286024</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>10</v>
-      </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AF7" t="n">
-        <v>-0.02968186096404679</v>
+        <v>-0.1404028809629381</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.00624201720347628</v>
+        <v>0.005448320880532265</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.00624201720347628</v>
+        <v>0.1816250201081857</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.021876051556319</v>
+        <v>-0.09274852788075805</v>
       </c>
     </row>
     <row r="8">
@@ -1252,106 +1252,106 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.002172698468302466</v>
+        <v>0.001521087492006522</v>
       </c>
       <c r="C8" t="n">
-        <v>2.157172990438202</v>
+        <v>15.34862599062001</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E8" t="n">
-        <v>250000.0286728608</v>
+        <v>250000.0742185908</v>
       </c>
       <c r="F8" t="n">
+        <v>54</v>
+      </c>
+      <c r="G8" t="n">
+        <v>250000.0824048521</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>249999.9900834888</v>
+      </c>
+      <c r="J8" t="n">
+        <v>62</v>
+      </c>
+      <c r="K8" t="n">
+        <v>249999.7563595733</v>
+      </c>
+      <c r="L8" t="n">
+        <v>999819</v>
+      </c>
+      <c r="M8" t="n">
+        <v>48999972.27231319</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>64</v>
+      </c>
+      <c r="P8" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>15</v>
+      </c>
+      <c r="R8" t="n">
+        <v>130.5331820469466</v>
+      </c>
+      <c r="S8" t="n">
         <v>12</v>
       </c>
-      <c r="G8" t="n">
-        <v>250000.0079516449</v>
-      </c>
-      <c r="H8" t="n">
-        <v>12</v>
-      </c>
-      <c r="I8" t="n">
-        <v>250000.0079516449</v>
-      </c>
-      <c r="J8" t="n">
-        <v>26</v>
-      </c>
-      <c r="K8" t="n">
-        <v>249999.9411956508</v>
-      </c>
-      <c r="L8" t="n">
-        <v>999950</v>
-      </c>
-      <c r="M8" t="n">
-        <v>48999975.60738625</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>10</v>
-      </c>
-      <c r="P8" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" t="n">
-        <v>10.12464120040316</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="X8" t="n">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="Y8" t="n">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="Z8" t="n">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.157172990438202</v>
+        <v>15</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="AE8" t="n">
         <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.01406065933406353</v>
+        <v>0.006555437459610403</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>0.02024522490683012</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>-0.08014654958969913</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>0.1186448243679479</v>
       </c>
     </row>
     <row r="9">
@@ -1359,82 +1359,82 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.002370518547509289</v>
+        <v>0.000975590552280821</v>
       </c>
       <c r="C9" t="n">
-        <v>2.120617156486126</v>
+        <v>17.38967754687072</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>250000.0286728608</v>
+        <v>250000.1910217651</v>
       </c>
       <c r="F9" t="n">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="G9" t="n">
-        <v>250000.0079516449</v>
+        <v>249999.9996666525</v>
       </c>
       <c r="H9" t="n">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I9" t="n">
-        <v>250000.0079516449</v>
+        <v>250000.0103287137</v>
       </c>
       <c r="J9" t="n">
+        <v>47</v>
+      </c>
+      <c r="K9" t="n">
+        <v>249999.7610733608</v>
+      </c>
+      <c r="L9" t="n">
+        <v>999834</v>
+      </c>
+      <c r="M9" t="n">
+        <v>48999972.20281426</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>24</v>
       </c>
-      <c r="K9" t="n">
-        <v>249999.9534146602</v>
-      </c>
-      <c r="L9" t="n">
-        <v>999952</v>
-      </c>
-      <c r="M9" t="n">
-        <v>48999975.59227559</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
       <c r="Q9" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="R9" t="n">
-        <v>10.12464120040316</v>
+        <v>130.5331820469466</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>10</v>
+        <v>237</v>
       </c>
       <c r="X9" t="n">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="Y9" t="n">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="Z9" t="n">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.120617156486126</v>
+        <v>17</v>
       </c>
       <c r="AB9" t="n">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.01508088692207821</v>
+        <v>0.04975511817610823</v>
       </c>
       <c r="AG9" t="n">
         <v>0</v>
@@ -1466,55 +1466,55 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.002787133558652837</v>
+        <v>0.001224277612704161</v>
       </c>
       <c r="C10" t="n">
-        <v>2.442603983747156</v>
+        <v>15.07695543337329</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>250000.0286728608</v>
+        <v>250000.1910217651</v>
       </c>
       <c r="F10" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G10" t="n">
-        <v>250000.0079516449</v>
+        <v>249999.9978250025</v>
       </c>
       <c r="H10" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I10" t="n">
-        <v>250000.0079516449</v>
+        <v>250000.0084870637</v>
       </c>
       <c r="J10" t="n">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="K10" t="n">
-        <v>249999.966653897</v>
+        <v>249999.808986829</v>
       </c>
       <c r="L10" t="n">
-        <v>999954</v>
+        <v>999851</v>
       </c>
       <c r="M10" t="n">
-        <v>48999975.5761447</v>
+        <v>48999972.15200914</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="R10" t="n">
-        <v>10.12464120040316</v>
+        <v>130.5331820469466</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="X10" t="n">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="Y10" t="n">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="Z10" t="n">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.442603983747156</v>
+        <v>15</v>
       </c>
       <c r="AB10" t="n">
         <v>0</v>
@@ -1550,22 +1550,22 @@
         <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="n">
         <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.02042359061306342</v>
+        <v>0.05509249254828319</v>
       </c>
       <c r="AG10" t="n">
         <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>-0.002886416419642046</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>0.001836416427977383</v>
       </c>
     </row>
     <row r="11">
@@ -1573,55 +1573,55 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.003051507966169775</v>
+        <v>0.001050437271706807</v>
       </c>
       <c r="C11" t="n">
-        <v>1.508208551459082</v>
+        <v>15.06344728660897</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>250000.0286728608</v>
+        <v>250000.1917665316</v>
       </c>
       <c r="F11" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G11" t="n">
-        <v>250000.0079516449</v>
+        <v>249999.9949385861</v>
       </c>
       <c r="H11" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I11" t="n">
-        <v>250000.0079516449</v>
+        <v>250000.0084870637</v>
       </c>
       <c r="J11" t="n">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="K11" t="n">
-        <v>249999.9852358377</v>
+        <v>249999.8622376715</v>
       </c>
       <c r="L11" t="n">
-        <v>999956</v>
+        <v>999866</v>
       </c>
       <c r="M11" t="n">
-        <v>48999975.55467111</v>
+        <v>48999972.09586665</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Q11" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="R11" t="n">
-        <v>10.12464120040316</v>
+        <v>130.5331820469466</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1633,46 +1633,46 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="Z11" t="n">
-        <v>-1</v>
+        <v>82</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.508208551459082</v>
+        <v>15</v>
       </c>
       <c r="AB11" t="n">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="AC11" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="AD11" t="n">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="AF11" t="n">
-        <v>-0.07115953785250895</v>
+        <v>-0.08245888855890371</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.02183630975196138</v>
+        <v>0.06670320400735363</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.01420753984712064</v>
+        <v>-0.04411792813334614</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.04577261948725209</v>
+        <v>0.02205961997970007</v>
       </c>
     </row>
     <row r="12">
@@ -1680,106 +1680,106 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.003390136508035759</v>
+        <v>0.001045760972989383</v>
       </c>
       <c r="C12" t="n">
-        <v>2.353614527832719</v>
+        <v>18.93296084634444</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="E12" t="n">
-        <v>250000.0744454803</v>
+        <v>250000.2138261515</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G12" t="n">
-        <v>250000.0203175347</v>
+        <v>249999.9489790079</v>
       </c>
       <c r="H12" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="I12" t="n">
-        <v>250000.0279463046</v>
+        <v>250000.0733486177</v>
       </c>
       <c r="J12" t="n">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="K12" t="n">
-        <v>249999.9122346498</v>
+        <v>249999.777937133</v>
       </c>
       <c r="L12" t="n">
-        <v>999959</v>
+        <v>999804</v>
       </c>
       <c r="M12" t="n">
-        <v>48999975.53981418</v>
+        <v>48999972.12583899</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="P12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q12" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="R12" t="n">
-        <v>10.12464120040316</v>
+        <v>130.5331820469466</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="V12" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="X12" t="n">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="Y12" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="Z12" t="n">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="AA12" t="n">
-        <v>2.353614527832719</v>
+        <v>19</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.02393722362467088</v>
+        <v>-0.01725929506937973</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>-0.113469304604223</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>0.1882369751401711</v>
       </c>
       <c r="AI12" t="n">
-        <v>-0.03495136508718133</v>
+        <v>-0.002095760952215642</v>
       </c>
     </row>
     <row r="13">
@@ -1787,106 +1787,106 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.00323179869397023</v>
+        <v>0.0007948536541630702</v>
       </c>
       <c r="C13" t="n">
-        <v>2.659109340455845</v>
+        <v>25.13314817876824</v>
       </c>
       <c r="D13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E13" t="n">
-        <v>250000.0394941152</v>
+        <v>250000.2098887406</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="G13" t="n">
-        <v>250000.0203175347</v>
+        <v>250000.1353743331</v>
       </c>
       <c r="H13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I13" t="n">
-        <v>250000.0279463046</v>
+        <v>249999.9580376631</v>
       </c>
       <c r="J13" t="n">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="K13" t="n">
-        <v>249999.9343302234</v>
+        <v>249999.7588361879</v>
       </c>
       <c r="L13" t="n">
-        <v>999950</v>
+        <v>999822</v>
       </c>
       <c r="M13" t="n">
-        <v>48999975.54613667</v>
+        <v>48999972.06438473</v>
       </c>
       <c r="N13" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="R13" t="n">
-        <v>10.12464120040316</v>
+        <v>130.5331820469466</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="X13" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="Y13" t="n">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="Z13" t="n">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="AA13" t="n">
-        <v>2.659109340455845</v>
+        <v>25</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="AE13" t="n">
         <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.02578111828188412</v>
+        <v>0.0009371341438964009</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>0.05762688993127085</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>-0.09166331659071147</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>0.09061331659904681</v>
       </c>
     </row>
     <row r="14">
@@ -1894,82 +1894,82 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.004227760786896516</v>
+        <v>0.0008119055406406908</v>
       </c>
       <c r="C14" t="n">
-        <v>3.505963238898036</v>
+        <v>18.04901953462817</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>250000.0384024652</v>
+        <v>250000.2994104071</v>
       </c>
       <c r="F14" t="n">
         <v>12</v>
       </c>
       <c r="G14" t="n">
-        <v>250000.0203175347</v>
+        <v>250000.0418693665</v>
       </c>
       <c r="H14" t="n">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="I14" t="n">
-        <v>250000.0279463046</v>
+        <v>250000.013822903</v>
       </c>
       <c r="J14" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="K14" t="n">
-        <v>249999.9582696917</v>
+        <v>249999.757931672</v>
       </c>
       <c r="L14" t="n">
-        <v>999953</v>
+        <v>999847</v>
       </c>
       <c r="M14" t="n">
-        <v>48999975.51930556</v>
+        <v>48999972.0037207</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q14" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="R14" t="n">
-        <v>10.12464120040316</v>
+        <v>130.5331820469466</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>20</v>
+        <v>157</v>
       </c>
       <c r="X14" t="n">
-        <v>30</v>
+        <v>260</v>
       </c>
       <c r="Y14" t="n">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="Z14" t="n">
-        <v>11</v>
+        <v>160</v>
       </c>
       <c r="AA14" t="n">
-        <v>3.505963238898036</v>
+        <v>18</v>
       </c>
       <c r="AB14" t="n">
         <v>0</v>
@@ -1984,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.04446712171193212</v>
+        <v>0.04384289920562878</v>
       </c>
       <c r="AG14" t="n">
         <v>0</v>
@@ -2001,106 +2001,106 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.004685457562822996</v>
+        <v>0.000612693108090764</v>
       </c>
       <c r="C15" t="n">
-        <v>3.425578881327779</v>
+        <v>10.60400674125884</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>250000.0384024652</v>
+        <v>250000.2994104071</v>
       </c>
       <c r="F15" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>250000.0203175347</v>
+        <v>250000.0407777165</v>
       </c>
       <c r="H15" t="n">
+        <v>49</v>
+      </c>
+      <c r="I15" t="n">
+        <v>250000.011981253</v>
+      </c>
+      <c r="J15" t="n">
+        <v>86</v>
+      </c>
+      <c r="K15" t="n">
+        <v>249999.7999329212</v>
+      </c>
+      <c r="L15" t="n">
+        <v>999865</v>
+      </c>
+      <c r="M15" t="n">
+        <v>48999971.9588278</v>
+      </c>
+      <c r="N15" t="n">
+        <v>52</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>11</v>
       </c>
-      <c r="I15" t="n">
-        <v>250000.0279463046</v>
-      </c>
-      <c r="J15" t="n">
+      <c r="R15" t="n">
+        <v>130.5331820469466</v>
+      </c>
+      <c r="S15" t="n">
+        <v>64</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>79</v>
+      </c>
+      <c r="X15" t="n">
+        <v>270</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>180</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>111</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB15" t="n">
         <v>20</v>
       </c>
-      <c r="K15" t="n">
-        <v>250000.0008951634</v>
-      </c>
-      <c r="L15" t="n">
-        <v>999957</v>
-      </c>
-      <c r="M15" t="n">
-        <v>48999975.47378843</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>4</v>
-      </c>
-      <c r="R15" t="n">
-        <v>10.12464120040316</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>20</v>
-      </c>
-      <c r="X15" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>3.425578881327779</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>10</v>
-      </c>
       <c r="AC15" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="AF15" t="n">
-        <v>-0.07003522565355524</v>
+        <v>-0.01146578282350674</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.02237728782347403</v>
+        <v>0.03063465538434684</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.09370915126055479</v>
+        <v>0</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>-0.03291004162747413</v>
       </c>
     </row>
     <row r="16">
@@ -2108,58 +2108,58 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.002353106055427488</v>
+        <v>0.000778396769314093</v>
       </c>
       <c r="C16" t="n">
-        <v>4.033096945877301</v>
+        <v>14.52384083443236</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="E16" t="n">
-        <v>250000.0384024652</v>
+        <v>250000.2665003655</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>250000.1121850359</v>
+        <v>250000.0407777165</v>
       </c>
       <c r="H16" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="I16" t="n">
-        <v>250000.0484819424</v>
+        <v>250000.0407742584</v>
       </c>
       <c r="J16" t="n">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="K16" t="n">
-        <v>249999.9290182878</v>
+        <v>249999.7866254884</v>
       </c>
       <c r="L16" t="n">
-        <v>999960</v>
+        <v>999824</v>
       </c>
       <c r="M16" t="n">
-        <v>48999975.42458722</v>
+        <v>48999971.96682732</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="P16" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="R16" t="n">
-        <v>10.12464120040316</v>
+        <v>130.5331820469466</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -2171,43 +2171,43 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="X16" t="n">
-        <v>10</v>
+        <v>268</v>
       </c>
       <c r="Y16" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="Z16" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="AA16" t="n">
-        <v>4.033096945877301</v>
+        <v>15</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.02847091454896145</v>
+        <v>-0.0458078142546583</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>0.01490713376551867</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>0.06382853505783714</v>
       </c>
       <c r="AI16" t="n">
-        <v>-0.02458106057019904</v>
+        <v>-0.0532025835418608</v>
       </c>
     </row>
     <row r="17">
@@ -2215,106 +2215,106 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.002606480585371469</v>
+        <v>0.0006725583743916549</v>
       </c>
       <c r="C17" t="n">
-        <v>4.444074051173112</v>
+        <v>19.68767054726463</v>
       </c>
       <c r="D17" t="n">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="E17" t="n">
-        <v>250000.0138214047</v>
+        <v>250000.210706132</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="G17" t="n">
-        <v>250000.1121850359</v>
+        <v>250000.1046062516</v>
       </c>
       <c r="H17" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>250000.0484819424</v>
+        <v>250000.0545897422</v>
       </c>
       <c r="J17" t="n">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="K17" t="n">
-        <v>249999.9556475523</v>
+        <v>249999.7389760241</v>
       </c>
       <c r="L17" t="n">
-        <v>999954</v>
+        <v>999772</v>
       </c>
       <c r="M17" t="n">
-        <v>48999975.41600572</v>
+        <v>48999971.9810604</v>
       </c>
       <c r="N17" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Q17" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="R17" t="n">
-        <v>10.12464120040316</v>
+        <v>130.5331820469466</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>10</v>
+        <v>183</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="Y17" t="n">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="Z17" t="n">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="AA17" t="n">
-        <v>4.444074051173112</v>
+        <v>20</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="AD17" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
         <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.03475017819437198</v>
+        <v>-0.009456979663809761</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>-0.01820023855543695</v>
       </c>
       <c r="AH17" t="n">
-        <v>-0.04014720878330991</v>
+        <v>0.06591072070295922</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.03909720879164524</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2322,106 +2322,106 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.002962598755910767</v>
+        <v>0.0008077918524359856</v>
       </c>
       <c r="C18" t="n">
-        <v>4.444228231431118</v>
+        <v>29.02165193050801</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E18" t="n">
-        <v>250000.0518269635</v>
+        <v>250000.208864482</v>
       </c>
       <c r="F18" t="n">
         <v>12</v>
       </c>
       <c r="G18" t="n">
-        <v>250000.0720378272</v>
+        <v>250000.1679253223</v>
       </c>
       <c r="H18" t="n">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="I18" t="n">
-        <v>250000.0484819424</v>
+        <v>250000.0363895036</v>
       </c>
       <c r="J18" t="n">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="K18" t="n">
-        <v>249999.9885560805</v>
+        <v>249999.7276773945</v>
       </c>
       <c r="L18" t="n">
-        <v>999958</v>
+        <v>999792</v>
       </c>
       <c r="M18" t="n">
-        <v>48999975.38020553</v>
+        <v>48999971.9396569</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O18" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q18" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="R18" t="n">
-        <v>10.12464120040316</v>
+        <v>130.5331820469466</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="V18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="X18" t="n">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="Y18" t="n">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="Z18" t="n">
-        <v>9</v>
+        <v>143</v>
       </c>
       <c r="AA18" t="n">
-        <v>4.444228231431118</v>
+        <v>29</v>
       </c>
       <c r="AB18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.03104289819020778</v>
+        <v>0.07027789115090854</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.007406496879411861</v>
+        <v>-0.005896751099498942</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>-0.03134219447383657</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>0.02439544335356914</v>
       </c>
     </row>
     <row r="19">
@@ -2429,61 +2429,61 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.002200844675447898</v>
+        <v>0.0009062330801900957</v>
       </c>
       <c r="C19" t="n">
-        <v>3.603617508530619</v>
+        <v>25.70242378772911</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="E19" t="n">
-        <v>250000.0518269635</v>
+        <v>250000.2314182753</v>
       </c>
       <c r="F19" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="G19" t="n">
-        <v>250000.0720378272</v>
+        <v>250000.1347414778</v>
       </c>
       <c r="H19" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I19" t="n">
-        <v>250000.0540467893</v>
+        <v>250000.0286511025</v>
       </c>
       <c r="J19" t="n">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="K19" t="n">
-        <v>250000.0177573287</v>
+        <v>249999.7961136356</v>
       </c>
       <c r="L19" t="n">
-        <v>999963</v>
+        <v>999809</v>
       </c>
       <c r="M19" t="n">
-        <v>48999975.33965614</v>
+        <v>48999971.87618086</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Q19" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="R19" t="n">
-        <v>10.12464120040316</v>
+        <v>130.5331820469466</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2492,43 +2492,43 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="X19" t="n">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="Z19" t="n">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="AA19" t="n">
-        <v>3.603617508530619</v>
+        <v>26</v>
       </c>
       <c r="AB19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC19" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AF19" t="n">
-        <v>-0.026775997976074</v>
+        <v>0.05151151865720749</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.004452111694263294</v>
+        <v>0.01812466158298776</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.04401689351652749</v>
+        <v>-0.0758142291160766</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>0.05287086826865561</v>
       </c>
     </row>
     <row r="20">
@@ -2536,58 +2536,58 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.002969509047959094</v>
+        <v>0.0006222506315793097</v>
       </c>
       <c r="C20" t="n">
-        <v>5.197591977444547</v>
+        <v>30.69018026080463</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E20" t="n">
-        <v>250000.0518269635</v>
+        <v>250000.2824474936</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="G20" t="n">
-        <v>250000.1142130707</v>
+        <v>250000.0570855987</v>
       </c>
       <c r="H20" t="n">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="I20" t="n">
-        <v>250000.056657251</v>
+        <v>250000.0449341141</v>
       </c>
       <c r="J20" t="n">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="K20" t="n">
-        <v>249999.9891396807</v>
+        <v>249999.8457835042</v>
       </c>
       <c r="L20" t="n">
-        <v>999967</v>
+        <v>999812</v>
       </c>
       <c r="M20" t="n">
-        <v>48999975.31481314</v>
+        <v>48999971.82344639</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="P20" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="R20" t="n">
-        <v>10.12464120040316</v>
+        <v>130.5331820469466</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2599,43 +2599,43 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="X20" t="n">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="Y20" t="n">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="Z20" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="AA20" t="n">
-        <v>5.197591977444547</v>
+        <v>31</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.04630288924090564</v>
+        <v>-0.006961380975553766</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>0.0637806897284463</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>-0.01785076706437394</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>-0.002294501260621473</v>
       </c>
     </row>
     <row r="21">
@@ -2643,58 +2643,58 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.003673629277445628</v>
+        <v>0.0007212703071350683</v>
       </c>
       <c r="C21" t="n">
-        <v>4.388136832900476</v>
+        <v>40.64217003306707</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E21" t="n">
-        <v>250000.0518269635</v>
+        <v>250000.2783113424</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="G21" t="n">
-        <v>250000.1142130707</v>
+        <v>250000.0392348316</v>
       </c>
       <c r="H21" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>250000.056657251</v>
+        <v>250000.1068731539</v>
       </c>
       <c r="J21" t="n">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="K21" t="n">
-        <v>250000.0336009199</v>
+        <v>249999.8369804733</v>
       </c>
       <c r="L21" t="n">
-        <v>999972</v>
+        <v>999814</v>
       </c>
       <c r="M21" t="n">
-        <v>48999975.26746024</v>
+        <v>48999971.7807307</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="Q21" t="n">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="R21" t="n">
-        <v>10.12464120040316</v>
+        <v>130.5331820469466</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2706,43 +2706,43 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="Y21" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="Z21" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="AA21" t="n">
-        <v>4.388136832900476</v>
+        <v>41</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="AD21" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE21" t="n">
         <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.04836116384831257</v>
+        <v>0.01373604132095352</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>-0.01511477096937597</v>
       </c>
       <c r="AH21" t="n">
-        <v>-0.05615443916758522</v>
+        <v>0.08799497748259455</v>
       </c>
       <c r="AI21" t="n">
-        <v>0.05510443914681673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2750,106 +2750,106 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.003501092556336657</v>
+        <v>0.0005611229961367682</v>
       </c>
       <c r="C22" t="n">
-        <v>3.181788263273847</v>
+        <v>22.30357807414669</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E22" t="n">
-        <v>250000.1069314026</v>
+        <v>250000.2764696923</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G22" t="n">
-        <v>250000.0580586315</v>
+        <v>250000.1253881591</v>
       </c>
       <c r="H22" t="n">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="I22" t="n">
-        <v>250000.056657251</v>
+        <v>250000.0899167329</v>
       </c>
       <c r="J22" t="n">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="K22" t="n">
-        <v>250000.0801204338</v>
+        <v>249999.8488748645</v>
       </c>
       <c r="L22" t="n">
-        <v>999976</v>
+        <v>999855</v>
       </c>
       <c r="M22" t="n">
-        <v>48999975.21804908</v>
+        <v>48999971.69096445</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q22" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="R22" t="n">
-        <v>10.12464120040316</v>
+        <v>130.5331820469466</v>
       </c>
       <c r="S22" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="X22" t="n">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="Y22" t="n">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="Z22" t="n">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="AA22" t="n">
-        <v>3.181788263273847</v>
+        <v>22</v>
       </c>
       <c r="AB22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AE22" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.0236164742091205</v>
+        <v>0.03177569527179003</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.008752731402637437</v>
+        <v>-0.08549901089281775</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>0.06319858305505477</v>
       </c>
       <c r="AI22" t="n">
-        <v>-0.03606092557311058</v>
+        <v>0.02440885035321116</v>
       </c>
     </row>
     <row r="23">
@@ -2857,61 +2857,61 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.002836101507903854</v>
+        <v>0.0009171621139208626</v>
       </c>
       <c r="C23" t="n">
-        <v>2.928589238895237</v>
+        <v>23.8556255577885</v>
       </c>
       <c r="D23" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>250000.070870477</v>
+        <v>250000.2997868927</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G23" t="n">
-        <v>250000.0580586315</v>
+        <v>250000.1867450922</v>
       </c>
       <c r="H23" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="I23" t="n">
-        <v>250000.0635683324</v>
+        <v>250000.0025760719</v>
       </c>
       <c r="J23" t="n">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="K23" t="n">
-        <v>250000.101895258</v>
+        <v>249999.8788089098</v>
       </c>
       <c r="L23" t="n">
-        <v>999969</v>
+        <v>999877</v>
       </c>
       <c r="M23" t="n">
-        <v>48999975.21599915</v>
+        <v>48999971.65288033</v>
       </c>
       <c r="N23" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Q23" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="R23" t="n">
-        <v>10.12464120040316</v>
+        <v>130.5331820469466</v>
       </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2920,43 +2920,43 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="X23" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="Z23" t="n">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="AA23" t="n">
-        <v>2.928589238895237</v>
+        <v>24</v>
       </c>
       <c r="AB23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC23" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AF23" t="n">
-        <v>-0.03994495485676453</v>
+        <v>0.04664242992294021</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.006040253763785586</v>
+        <v>0.01834324229275808</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.05672203016001731</v>
+        <v>-0.1523817488050554</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>0.1392758034344297</v>
       </c>
     </row>
     <row r="24">
@@ -2964,61 +2964,61 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.002948133986113878</v>
+        <v>0.001007933105589323</v>
       </c>
       <c r="C24" t="n">
-        <v>2.697703488972917</v>
+        <v>37.35603510308891</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E24" t="n">
-        <v>250000.069778827</v>
+        <v>250000.4390626961</v>
       </c>
       <c r="F24" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>250000.1129390117</v>
+        <v>250000.0332716934</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="I24" t="n">
-        <v>250000.0677669362</v>
+        <v>250000.0190776642</v>
       </c>
       <c r="J24" t="n">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="K24" t="n">
-        <v>250000.0601086532</v>
+        <v>249999.9236096898</v>
       </c>
       <c r="L24" t="n">
-        <v>999972</v>
+        <v>999889</v>
       </c>
       <c r="M24" t="n">
-        <v>48999975.19003182</v>
+        <v>48999971.59420896</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="O24" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="R24" t="n">
-        <v>10.12464120040316</v>
+        <v>130.5331820469466</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="T24" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -3027,22 +3027,22 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="X24" t="n">
-        <v>22</v>
+        <v>235</v>
       </c>
       <c r="Y24" t="n">
-        <v>18</v>
+        <v>257</v>
       </c>
       <c r="Z24" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="AA24" t="n">
-        <v>2.697703488972917</v>
+        <v>37</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -3051,19 +3051,19 @@
         <v>0</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.0238595740229357</v>
+        <v>0.007517431396991014</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>0.1033131433068775</v>
       </c>
       <c r="AH24" t="n">
         <v>0</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>-0.08571638085413724</v>
       </c>
     </row>
     <row r="25">
@@ -3071,61 +3071,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.004680417250578036</v>
+        <v>0.001155500150974175</v>
       </c>
       <c r="C25" t="n">
-        <v>4.04858221994877</v>
+        <v>17.56438222010859</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="E25" t="n">
-        <v>250000.069778827</v>
+        <v>250000.3507546652</v>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G25" t="n">
-        <v>250000.1110973617</v>
+        <v>250000.0332716934</v>
       </c>
       <c r="H25" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>250000.0677669362</v>
+        <v>250000.1212991576</v>
       </c>
       <c r="J25" t="n">
+        <v>62</v>
+      </c>
+      <c r="K25" t="n">
+        <v>249999.9292854712</v>
+      </c>
+      <c r="L25" t="n">
+        <v>999842</v>
+      </c>
+      <c r="M25" t="n">
+        <v>48999971.56410311</v>
+      </c>
+      <c r="N25" t="n">
+        <v>6</v>
+      </c>
+      <c r="O25" t="n">
+        <v>84</v>
+      </c>
+      <c r="P25" t="n">
         <v>12</v>
       </c>
-      <c r="K25" t="n">
-        <v>250000.0821265772</v>
-      </c>
-      <c r="L25" t="n">
-        <v>999975</v>
-      </c>
-      <c r="M25" t="n">
-        <v>48999975.16512225</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>8</v>
-      </c>
       <c r="Q25" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="R25" t="n">
-        <v>10.12464120040316</v>
+        <v>130.5331820469466</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -3134,22 +3134,22 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="X25" t="n">
-        <v>20</v>
+        <v>333</v>
       </c>
       <c r="Y25" t="n">
+        <v>246</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA25" t="n">
         <v>18</v>
       </c>
-      <c r="Z25" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>4.04858221994877</v>
-      </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -3158,19 +3158,19 @@
         <v>0</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.05684716219548136</v>
+        <v>-0.0570917573350016</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>0.1184387654648162</v>
       </c>
       <c r="AH25" t="n">
         <v>0</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>-0.007983000919921324</v>
       </c>
     </row>
     <row r="26">
@@ -3178,85 +3178,85 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.004011401919753603</v>
+        <v>0.001070616290876169</v>
       </c>
       <c r="C26" t="n">
-        <v>3.610895208108976</v>
+        <v>25.36596465083231</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E26" t="n">
-        <v>250000.069778827</v>
+        <v>250000.3409300143</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="G26" t="n">
-        <v>250000.1110973617</v>
+        <v>250000.0306800434</v>
       </c>
       <c r="H26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I26" t="n">
-        <v>250000.0677669362</v>
+        <v>250000.239737923</v>
       </c>
       <c r="J26" t="n">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="K26" t="n">
-        <v>250000.1371320894</v>
+        <v>249999.8703520638</v>
       </c>
       <c r="L26" t="n">
-        <v>999979</v>
+        <v>999854</v>
       </c>
       <c r="M26" t="n">
-        <v>48999975.10722508</v>
+        <v>48999971.50574745</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Q26" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="R26" t="n">
-        <v>10.12464120040316</v>
+        <v>130.5331820469466</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="X26" t="n">
-        <v>10</v>
+        <v>342</v>
       </c>
       <c r="Y26" t="n">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="Z26" t="n">
-        <v>9</v>
+        <v>131</v>
       </c>
       <c r="AA26" t="n">
-        <v>3.610895208108976</v>
+        <v>25</v>
       </c>
       <c r="AB26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC26" t="n">
         <v>0</v>
@@ -3265,19 +3265,19 @@
         <v>0</v>
       </c>
       <c r="AE26" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.03237575112143531</v>
+        <v>0.08029622182948515</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.01002850479562767</v>
+        <v>0</v>
       </c>
       <c r="AH26" t="n">
         <v>0</v>
       </c>
       <c r="AI26" t="n">
-        <v>-0.04116401920327917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -3285,106 +3285,106 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.004474763168542307</v>
+        <v>0.001447315110885436</v>
       </c>
       <c r="C27" t="n">
-        <v>3.421098946631788</v>
+        <v>17.21767494262177</v>
       </c>
       <c r="D27" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>250000.0286148078</v>
+        <v>250000.3398383643</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="G27" t="n">
-        <v>250000.1110973617</v>
+        <v>250000.0288383934</v>
       </c>
       <c r="H27" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="I27" t="n">
-        <v>250000.075953791</v>
+        <v>250000.237896273</v>
       </c>
       <c r="J27" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="K27" t="n">
-        <v>250000.1676661904</v>
+        <v>249999.9488066357</v>
       </c>
       <c r="L27" t="n">
-        <v>999973</v>
+        <v>999879</v>
       </c>
       <c r="M27" t="n">
-        <v>48999975.1002432</v>
+        <v>48999971.42440123</v>
       </c>
       <c r="N27" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Q27" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="R27" t="n">
-        <v>10.12464120040316</v>
+        <v>130.5331820469466</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="Y27" t="n">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="Z27" t="n">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="AA27" t="n">
-        <v>3.421098946631788</v>
+        <v>17</v>
       </c>
       <c r="AB27" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AC27" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="AD27" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE27" t="n">
         <v>0</v>
       </c>
       <c r="AF27" t="n">
-        <v>-0.05580634859506972</v>
+        <v>0.07381307065952569</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.08173311862628907</v>
+        <v>-0.0647318648698274</v>
       </c>
       <c r="AH27" t="n">
-        <v>-0.05027239484479651</v>
+        <v>0.06368186487816274</v>
       </c>
       <c r="AI27" t="n">
-        <v>0.06712144752964377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -3392,58 +3392,58 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.006847777160543198</v>
+        <v>0.001505899448994187</v>
       </c>
       <c r="C28" t="n">
-        <v>4.026645823324634</v>
+        <v>22.32619732132073</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>250000.0946446054</v>
+        <v>250000.3398383643</v>
       </c>
       <c r="F28" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G28" t="n">
-        <v>250000.0589833168</v>
+        <v>250000.0906786082</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="I28" t="n">
-        <v>250000.1558452596</v>
+        <v>250000.1713227582</v>
       </c>
       <c r="J28" t="n">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="K28" t="n">
-        <v>250000.1100181919</v>
+        <v>250000.0207780563</v>
       </c>
       <c r="L28" t="n">
-        <v>999976</v>
+        <v>999896</v>
       </c>
       <c r="M28" t="n">
-        <v>48999975.05326737</v>
+        <v>48999971.34953816</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="O28" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="Q28" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="R28" t="n">
-        <v>10.12464120040316</v>
+        <v>130.5331820469466</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -3455,43 +3455,43 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
+        <v>-14</v>
+      </c>
+      <c r="X28" t="n">
+        <v>176</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>110</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>111</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB28" t="n">
         <v>20</v>
       </c>
-      <c r="X28" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>4.026645823324634</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>0</v>
-      </c>
       <c r="AC28" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.08272071988903917</v>
+        <v>0.02304439118597656</v>
       </c>
       <c r="AG28" t="n">
-        <v>-0.1106144345540088</v>
+        <v>0.01099719558260404</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.1095644345914479</v>
+        <v>0.06324777688132599</v>
       </c>
       <c r="AI28" t="n">
-        <v>0</v>
+        <v>-0.2194054201245308</v>
       </c>
     </row>
     <row r="29">
@@ -3499,58 +3499,58 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.006220120997175095</v>
+        <v>0.001690206519899448</v>
       </c>
       <c r="C29" t="n">
-        <v>1.586494957688376</v>
+        <v>22.23133360232294</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="E29" t="n">
-        <v>250000.0946446054</v>
+        <v>250000.1204329442</v>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G29" t="n">
-        <v>250000.1667061014</v>
+        <v>250000.1520847351</v>
       </c>
       <c r="H29" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="I29" t="n">
-        <v>250000.045230825</v>
+        <v>250000.1804783038</v>
       </c>
       <c r="J29" t="n">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="K29" t="n">
-        <v>250000.1908972618</v>
+        <v>250000.0419807975</v>
       </c>
       <c r="L29" t="n">
-        <v>999980</v>
+        <v>999773</v>
       </c>
       <c r="M29" t="n">
-        <v>48999974.96949666</v>
+        <v>48999971.46486257</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="P29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q29" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="R29" t="n">
-        <v>10.12464120040316</v>
+        <v>130.5331820469466</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -3562,43 +3562,43 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="X29" t="n">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="Y29" t="n">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="Z29" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="AA29" t="n">
-        <v>1.586494957688376</v>
+        <v>22</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.02960457181325182</v>
+        <v>-0.06274253796436824</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>0.003175516292685643</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>0.05388171190861613</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>0.1028977009700611</v>
       </c>
     </row>
     <row r="30">
@@ -3606,106 +3606,106 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.006750970984811516</v>
+        <v>0.001802726234828665</v>
       </c>
       <c r="C30" t="n">
-        <v>1.775325690664738</v>
+        <v>7.239191732362102</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="E30" t="n">
-        <v>250000.0946446054</v>
+        <v>250000.2214889952</v>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="G30" t="n">
-        <v>250000.1667061014</v>
+        <v>250000.204124797</v>
       </c>
       <c r="H30" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I30" t="n">
-        <v>250000.045230825</v>
+        <v>250000.18181217</v>
       </c>
       <c r="J30" t="n">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="K30" t="n">
-        <v>250000.2186601836</v>
+        <v>249999.9773966095</v>
       </c>
       <c r="L30" t="n">
-        <v>999982</v>
+        <v>999789</v>
       </c>
       <c r="M30" t="n">
-        <v>48999974.93884209</v>
+        <v>48999971.36055852</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="Q30" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R30" t="n">
-        <v>10.12464120040316</v>
+        <v>130.5331820469466</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10</v>
+        <v>196</v>
       </c>
       <c r="X30" t="n">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="Y30" t="n">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="Z30" t="n">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="AA30" t="n">
-        <v>1.775325690664738</v>
+        <v>7</v>
       </c>
       <c r="AB30" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD30" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="AE30" t="n">
         <v>0</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.01802808919455856</v>
+        <v>-0.1074108478787821</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.01687742746435106</v>
+        <v>0.1215353839506861</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>-0.160591271793237</v>
       </c>
       <c r="AI30" t="n">
-        <v>0</v>
+        <v>0.1811739866097923</v>
       </c>
     </row>
     <row r="31">
@@ -3713,40 +3713,40 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.00835223757824962</v>
+        <v>0.002472400880545972</v>
       </c>
       <c r="C31" t="n">
-        <v>1.938938886891447</v>
+        <v>9.188763065944579</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E31" t="n">
-        <v>250000.0946446054</v>
+        <v>250000.4008213318</v>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="G31" t="n">
-        <v>250000.1667061014</v>
+        <v>250000.0416918752</v>
       </c>
       <c r="H31" t="n">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="I31" t="n">
-        <v>250000.0602666025</v>
+        <v>250000.301505904</v>
       </c>
       <c r="J31" t="n">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="K31" t="n">
-        <v>250000.2348466228</v>
+        <v>249999.8681441116</v>
       </c>
       <c r="L31" t="n">
-        <v>999984</v>
+        <v>999796</v>
       </c>
       <c r="M31" t="n">
-        <v>48999974.90183657</v>
+        <v>48999971.32165128</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -3755,13 +3755,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="Q31" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="R31" t="n">
-        <v>10.12464120040316</v>
+        <v>130.5331820469466</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3770,49 +3770,49 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="V31" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>10</v>
+        <v>263</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="Y31" t="n">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="Z31" t="n">
-        <v>2</v>
+        <v>134</v>
       </c>
       <c r="AA31" t="n">
-        <v>1.938938886891447</v>
+        <v>9</v>
       </c>
       <c r="AB31" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AC31" t="n">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="AD31" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE31" t="n">
         <v>0</v>
       </c>
       <c r="AF31" t="n">
-        <v>-0.1195113168505486</v>
+        <v>0.06675482378341258</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.1325858012423851</v>
+        <v>-0.223566079250304</v>
       </c>
       <c r="AH31" t="n">
-        <v>-0.09292461336008273</v>
+        <v>0.2225160792586394</v>
       </c>
       <c r="AI31" t="n">
-        <v>0.1252835636551026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3820,58 +3820,58 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.01067233101280535</v>
+        <v>0.002572258846096831</v>
       </c>
       <c r="C32" t="n">
-        <v>1.891380587437746</v>
+        <v>7.220292550410014</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E32" t="n">
-        <v>250000.219928169</v>
+        <v>250000.4008213318</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G32" t="n">
-        <v>250000.072689838</v>
+        <v>250000.2623663045</v>
       </c>
       <c r="H32" t="n">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="I32" t="n">
-        <v>250000.1910107537</v>
+        <v>250000.0760981748</v>
       </c>
       <c r="J32" t="n">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="K32" t="n">
-        <v>250000.1134936559</v>
+        <v>249999.9330572854</v>
       </c>
       <c r="L32" t="n">
-        <v>999985</v>
+        <v>999805</v>
       </c>
       <c r="M32" t="n">
-        <v>48999974.85220313</v>
+        <v>48999971.25384645</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R32" t="n">
-        <v>10.12464120040316</v>
+        <v>130.5331820469466</v>
       </c>
       <c r="S32" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3883,43 +3883,43 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="X32" t="n">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="Y32" t="n">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="Z32" t="n">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="AA32" t="n">
-        <v>1.891380587437746</v>
+        <v>7</v>
       </c>
       <c r="AB32" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="AC32" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
       </c>
       <c r="AE32" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AF32" t="n">
-        <v>0.03282549159484915</v>
+        <v>-0.0563535651890561</v>
       </c>
       <c r="AG32" t="n">
-        <v>-0.1451264686766081</v>
+        <v>0.1093210009566974</v>
       </c>
       <c r="AH32" t="n">
-        <v>0.1707572962041013</v>
+        <v>0</v>
       </c>
       <c r="AI32" t="n">
-        <v>-0.1077733101265039</v>
+        <v>-0.03448936500353739</v>
       </c>
     </row>
     <row r="33">
@@ -3927,106 +3927,106 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.01094375408147404</v>
+        <v>0.002174111873249728</v>
       </c>
       <c r="C33" t="n">
-        <v>1.179643401544199</v>
+        <v>7.950760882187979</v>
       </c>
       <c r="D33" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E33" t="n">
-        <v>250000.1121548589</v>
+        <v>250000.3663319668</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G33" t="n">
-        <v>250000.2434471342</v>
+        <v>250000.2623663045</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="I33" t="n">
-        <v>250000.0440426351</v>
+        <v>250000.1835775257</v>
       </c>
       <c r="J33" t="n">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="K33" t="n">
-        <v>250000.1444774975</v>
+        <v>249999.8748620703</v>
       </c>
       <c r="L33" t="n">
-        <v>999977</v>
+        <v>999799</v>
       </c>
       <c r="M33" t="n">
-        <v>48999974.89472847</v>
+        <v>48999971.23037674</v>
       </c>
       <c r="N33" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="Q33" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R33" t="n">
-        <v>10.12464120040316</v>
+        <v>130.5331820469466</v>
       </c>
       <c r="S33" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>125</v>
+      </c>
+      <c r="X33" t="n">
+        <v>67</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>92</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA33" t="n">
         <v>8</v>
       </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="n">
-        <v>10</v>
-      </c>
-      <c r="X33" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>1.179643401544199</v>
-      </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.03872918189154007</v>
+        <v>-0.1717177820682991</v>
       </c>
       <c r="AG33" t="n">
-        <v>0</v>
+        <v>0.05221574089955539</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
+        <v>-0.04018401372013614</v>
       </c>
       <c r="AI33" t="n">
-        <v>0</v>
+        <v>0.194620068592485</v>
       </c>
     </row>
     <row r="34">
@@ -4034,61 +4034,61 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.01156637681526276</v>
+        <v>0.002879491343253758</v>
       </c>
       <c r="C34" t="n">
-        <v>1.482061069536306</v>
+        <v>11.92762736703531</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E34" t="n">
-        <v>250000.1103132089</v>
+        <v>250000.5591103854</v>
       </c>
       <c r="F34" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G34" t="n">
-        <v>250000.2434471342</v>
+        <v>250000.2203406407</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="I34" t="n">
-        <v>250000.0440426351</v>
+        <v>250000.2339516166</v>
       </c>
       <c r="J34" t="n">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="K34" t="n">
-        <v>250000.1813650294</v>
+        <v>249999.7013026382</v>
       </c>
       <c r="L34" t="n">
-        <v>999978</v>
+        <v>999801</v>
       </c>
       <c r="M34" t="n">
-        <v>48999974.8549493</v>
+        <v>48999971.18835107</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O34" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="Q34" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="R34" t="n">
-        <v>10.12464120040316</v>
+        <v>130.5331820469466</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="T34" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -4097,43 +4097,43 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="X34" t="n">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="Y34" t="n">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="Z34" t="n">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="AA34" t="n">
-        <v>1.482061069536306</v>
+        <v>12</v>
       </c>
       <c r="AB34" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="AC34" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="AD34" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.02146028832066804</v>
+        <v>-0.1925361743196845</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.02891594203538261</v>
+        <v>0.0234256764233578</v>
       </c>
       <c r="AH34" t="n">
-        <v>0</v>
+        <v>0.118448890716536</v>
       </c>
       <c r="AI34" t="n">
-        <v>0</v>
+        <v>0.1126899080409203</v>
       </c>
     </row>
     <row r="35">
@@ -4141,106 +4141,106 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.01023977895781862</v>
+        <v>0.002494244905017595</v>
       </c>
       <c r="C35" t="n">
-        <v>1.393986016258128</v>
+        <v>12.45693602967885</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E35" t="n">
-        <v>250000.1103132089</v>
+        <v>250000.6699586434</v>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G35" t="n">
-        <v>250000.2416054842</v>
+        <v>250000.3369478815</v>
       </c>
       <c r="H35" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="I35" t="n">
-        <v>250000.0711169271</v>
+        <v>250000.255535643</v>
       </c>
       <c r="J35" t="n">
-        <v>9</v>
+        <v>148</v>
       </c>
       <c r="K35" t="n">
-        <v>250000.2009836677</v>
+        <v>249999.5069248139</v>
       </c>
       <c r="L35" t="n">
-        <v>999979</v>
+        <v>999800</v>
       </c>
       <c r="M35" t="n">
-        <v>48999974.80247306</v>
+        <v>48999971.11923112</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="P35" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q35" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="R35" t="n">
-        <v>10.12464120040316</v>
+        <v>130.5331820469466</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="X35" t="n">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="Y35" t="n">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="Z35" t="n">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="AA35" t="n">
-        <v>1.393986016258128</v>
+        <v>12</v>
       </c>
       <c r="AB35" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="AC35" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
       </c>
       <c r="AE35" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="AF35" t="n">
-        <v>-0.1886227005161345</v>
+        <v>-0.1107967758434825</v>
       </c>
       <c r="AG35" t="n">
-        <v>0.2303950265340973</v>
+        <v>0.04384640831267461</v>
       </c>
       <c r="AH35" t="n">
-        <v>0</v>
+        <v>0.1546431841270532</v>
       </c>
       <c r="AI35" t="n">
-        <v>0</v>
+        <v>-0.1531989391951356</v>
       </c>
     </row>
     <row r="36">
@@ -4248,61 +4248,61 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.01323387037937856</v>
+        <v>0.0009186373630411691</v>
       </c>
       <c r="C36" t="n">
-        <v>1.961460478750572</v>
+        <v>12.48429356737546</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="E36" t="n">
-        <v>250000.1103132089</v>
+        <v>250000.5149180543</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G36" t="n">
-        <v>250000.2416054842</v>
+        <v>250000.4897494156</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I36" t="n">
-        <v>250000.2996703036</v>
+        <v>250000.2975404013</v>
       </c>
       <c r="J36" t="n">
-        <v>16</v>
+        <v>168</v>
       </c>
       <c r="K36" t="n">
-        <v>250000.0105193172</v>
+        <v>249999.394286388</v>
       </c>
       <c r="L36" t="n">
-        <v>999981</v>
+        <v>999751</v>
       </c>
       <c r="M36" t="n">
-        <v>48999974.75860073</v>
+        <v>48999971.17869559</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q36" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="R36" t="n">
-        <v>10.12464120040316</v>
+        <v>130.5331820469466</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -4311,22 +4311,22 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="X36" t="n">
-        <v>10</v>
+        <v>201</v>
       </c>
       <c r="Y36" t="n">
-        <v>16</v>
+        <v>170</v>
       </c>
       <c r="Z36" t="n">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="AA36" t="n">
-        <v>1.961460478750572</v>
+        <v>12</v>
       </c>
       <c r="AB36" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AC36" t="n">
         <v>0</v>
@@ -4335,19 +4335,19 @@
         <v>0</v>
       </c>
       <c r="AE36" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AF36" t="n">
-        <v>0.07787314118468203</v>
+        <v>-0.007021142868325114</v>
       </c>
       <c r="AG36" t="n">
-        <v>0</v>
+        <v>0.03904208794119768</v>
       </c>
       <c r="AH36" t="n">
         <v>0</v>
       </c>
       <c r="AI36" t="n">
-        <v>-0.1333887037762906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -4355,106 +4355,106 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.01594693315996665</v>
+        <v>0.0006350537471680219</v>
       </c>
       <c r="C37" t="n">
-        <v>2.349407545440378</v>
+        <v>8.906764270965837</v>
       </c>
       <c r="D37" t="n">
+        <v>13</v>
+      </c>
+      <c r="E37" t="n">
+        <v>250000.5130764043</v>
+      </c>
+      <c r="F37" t="n">
+        <v>48</v>
+      </c>
+      <c r="G37" t="n">
+        <v>250000.4879077656</v>
+      </c>
+      <c r="H37" t="n">
+        <v>13</v>
+      </c>
+      <c r="I37" t="n">
+        <v>250000.3347408393</v>
+      </c>
+      <c r="J37" t="n">
+        <v>163</v>
+      </c>
+      <c r="K37" t="n">
+        <v>249999.3854235952</v>
+      </c>
+      <c r="L37" t="n">
+        <v>999763</v>
+      </c>
+      <c r="M37" t="n">
+        <v>48999971.14457464</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>9</v>
+      </c>
+      <c r="R37" t="n">
+        <v>130.5331820469466</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>26</v>
+      </c>
+      <c r="U37" t="n">
         <v>10</v>
       </c>
-      <c r="E37" t="n">
-        <v>249999.9769245051</v>
-      </c>
-      <c r="F37" t="n">
-        <v>2</v>
-      </c>
-      <c r="G37" t="n">
-        <v>250000.2416054842</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>250000.2996703036</v>
-      </c>
-      <c r="J37" t="n">
-        <v>14</v>
-      </c>
-      <c r="K37" t="n">
-        <v>250000.0865508084</v>
-      </c>
-      <c r="L37" t="n">
-        <v>999973</v>
-      </c>
-      <c r="M37" t="n">
-        <v>48999974.80942465</v>
-      </c>
-      <c r="N37" t="n">
-        <v>10</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2</v>
-      </c>
-      <c r="R37" t="n">
-        <v>10.12464120040316</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="Y37" t="n">
-        <v>8</v>
+        <v>147</v>
       </c>
       <c r="Z37" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="AA37" t="n">
-        <v>2.349407545440378</v>
+        <v>9</v>
       </c>
       <c r="AB37" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AC37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD37" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE37" t="n">
         <v>0</v>
       </c>
       <c r="AF37" t="n">
-        <v>0.1123975352675188</v>
+        <v>-0.03312021421152167</v>
       </c>
       <c r="AG37" t="n">
-        <v>-0.06483773264335468</v>
+        <v>0.04921666541486047</v>
       </c>
       <c r="AH37" t="n">
-        <v>-0.1764662647619843</v>
+        <v>0</v>
       </c>
       <c r="AI37" t="n">
-        <v>0.2392039973929059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -4462,55 +4462,55 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0242958583028614</v>
+        <v>0.0006592754809284253</v>
       </c>
       <c r="C38" t="n">
-        <v>2.605861752573344</v>
+        <v>8.829795467509552</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E38" t="n">
-        <v>250000.2150368525</v>
+        <v>250000.5130764043</v>
       </c>
       <c r="F38" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G38" t="n">
-        <v>250000.0632975695</v>
+        <v>250000.4860661156</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="I38" t="n">
-        <v>250000.234832571</v>
+        <v>250000.3821158546</v>
       </c>
       <c r="J38" t="n">
-        <v>12</v>
+        <v>167</v>
       </c>
       <c r="K38" t="n">
-        <v>250000.1971066936</v>
+        <v>249999.3504617309</v>
       </c>
       <c r="L38" t="n">
-        <v>999975</v>
+        <v>999772</v>
       </c>
       <c r="M38" t="n">
-        <v>48999974.69597711</v>
+        <v>48999971.12637819</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="O38" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P38" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="Q38" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="R38" t="n">
-        <v>10.12464120040316</v>
+        <v>130.5331820469466</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -4519,49 +4519,49 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="V38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="X38" t="n">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="Z38" t="n">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="AA38" t="n">
-        <v>2.605861752573344</v>
+        <v>9</v>
       </c>
       <c r="AB38" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="AC38" t="n">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="AD38" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AE38" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AF38" t="n">
-        <v>0.06740565216750838</v>
+        <v>-0.004676015145378187</v>
       </c>
       <c r="AG38" t="n">
-        <v>-0.2683044413279276</v>
+        <v>-0.04423254399443977</v>
       </c>
       <c r="AH38" t="n">
-        <v>0.3887337328342255</v>
+        <v>0.04180290625663474</v>
       </c>
       <c r="AI38" t="n">
-        <v>0</v>
+        <v>-0.002368550980463624</v>
       </c>
     </row>
     <row r="39">
@@ -4569,106 +4569,106 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.02679233071735202</v>
+        <v>0.0006705224412764763</v>
       </c>
       <c r="C39" t="n">
-        <v>3.230138013818082</v>
+        <v>6.848556019272145</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E39" t="n">
-        <v>250000.2150368525</v>
+        <v>250000.5088662033</v>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G39" t="n">
-        <v>250000.4501896523</v>
+        <v>250000.5260273718</v>
       </c>
       <c r="H39" t="n">
+        <v>22</v>
+      </c>
+      <c r="I39" t="n">
+        <v>250000.3360416607</v>
+      </c>
+      <c r="J39" t="n">
+        <v>184</v>
+      </c>
+      <c r="K39" t="n">
+        <v>249999.3439440658</v>
+      </c>
+      <c r="L39" t="n">
+        <v>999746</v>
+      </c>
+      <c r="M39" t="n">
+        <v>48999971.12876075</v>
+      </c>
+      <c r="N39" t="n">
+        <v>83</v>
+      </c>
+      <c r="O39" t="n">
+        <v>35</v>
+      </c>
+      <c r="P39" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>7</v>
+      </c>
+      <c r="R39" t="n">
+        <v>130.5331820469466</v>
+      </c>
+      <c r="S39" t="n">
         <v>9</v>
       </c>
-      <c r="I39" t="n">
-        <v>249999.9646864797</v>
-      </c>
-      <c r="J39" t="n">
-        <v>10</v>
-      </c>
-      <c r="K39" t="n">
-        <v>250000.2626706958</v>
-      </c>
-      <c r="L39" t="n">
-        <v>999979</v>
-      </c>
-      <c r="M39" t="n">
-        <v>48999974.50499217</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>4</v>
-      </c>
-      <c r="R39" t="n">
-        <v>10.12464120040316</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
-      </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V39" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="X39" t="n">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="Y39" t="n">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="Z39" t="n">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="AA39" t="n">
-        <v>3.230138013818082</v>
+        <v>7</v>
       </c>
       <c r="AB39" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AC39" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD39" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="AE39" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="AF39" t="n">
-        <v>-0.2102870097733103</v>
+        <v>-0.01546623249305412</v>
       </c>
       <c r="AG39" t="n">
-        <v>0.468865787552204</v>
+        <v>0.02074197932961397</v>
       </c>
       <c r="AH39" t="n">
-        <v>0</v>
+        <v>-0.07380168486270122</v>
       </c>
       <c r="AI39" t="n">
-        <v>0</v>
+        <v>0.02275354665471241</v>
       </c>
     </row>
     <row r="40">
@@ -4676,89 +4676,89 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.03865157154285293</v>
+        <v>0.0005845168252657178</v>
       </c>
       <c r="C40" t="n">
-        <v>1.237339056967489</v>
+        <v>6.230155553643185</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="E40" t="n">
-        <v>250000.2150368525</v>
+        <v>250000.5297780999</v>
       </c>
       <c r="F40" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="G40" t="n">
-        <v>250000.4501896523</v>
+        <v>250000.450384037</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I40" t="n">
-        <v>250000.4317106172</v>
+        <v>250000.35494199</v>
       </c>
       <c r="J40" t="n">
+        <v>199</v>
+      </c>
+      <c r="K40" t="n">
+        <v>249999.3266361833</v>
+      </c>
+      <c r="L40" t="n">
+        <v>999670</v>
+      </c>
+      <c r="M40" t="n">
+        <v>48999971.16744149</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>6</v>
+      </c>
+      <c r="R40" t="n">
+        <v>130.5331820469466</v>
+      </c>
+      <c r="S40" t="n">
+        <v>53</v>
+      </c>
+      <c r="T40" t="n">
+        <v>19</v>
+      </c>
+      <c r="U40" t="n">
+        <v>10</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>166</v>
+      </c>
+      <c r="X40" t="n">
+        <v>144</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>116</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>124</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC40" t="n">
         <v>15</v>
       </c>
-      <c r="K40" t="n">
-        <v>250000.050542036</v>
-      </c>
-      <c r="L40" t="n">
-        <v>999981</v>
-      </c>
-      <c r="M40" t="n">
-        <v>48999974.24431339</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>2</v>
-      </c>
-      <c r="R40" t="n">
-        <v>10.12464120040316</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>10</v>
-      </c>
-      <c r="X40" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>1.237339056967489</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>0</v>
-      </c>
       <c r="AD40" t="n">
         <v>0</v>
       </c>
@@ -4766,13 +4766,13 @@
         <v>0</v>
       </c>
       <c r="AF40" t="n">
-        <v>0.04579636838752776</v>
+        <v>-0.0007577415672130883</v>
       </c>
       <c r="AG40" t="n">
-        <v>0.09662892884807661</v>
+        <v>-0.008356460311915725</v>
       </c>
       <c r="AH40" t="n">
-        <v>0</v>
+        <v>0.01753550473949872</v>
       </c>
       <c r="AI40" t="n">
         <v>0</v>
@@ -4783,40 +4783,40 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.03988459843762891</v>
+        <v>0.000545136243152097</v>
       </c>
       <c r="C41" t="n">
-        <v>1.3171092507642</v>
+        <v>9.47184174421341</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E41" t="n">
-        <v>250000.2150368525</v>
+        <v>250000.5279364499</v>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="G41" t="n">
-        <v>250000.4501896523</v>
+        <v>250000.4660778917</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="I41" t="n">
-        <v>250000.5264978961</v>
+        <v>250000.3447438797</v>
       </c>
       <c r="J41" t="n">
-        <v>15</v>
+        <v>206</v>
       </c>
       <c r="K41" t="n">
-        <v>250000.0944967544</v>
+        <v>249999.3240367917</v>
       </c>
       <c r="L41" t="n">
-        <v>999982</v>
+        <v>999676</v>
       </c>
       <c r="M41" t="n">
-        <v>48999974.09978809</v>
+        <v>48999971.15587018</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -4825,13 +4825,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q41" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="R41" t="n">
-        <v>10.12464120040316</v>
+        <v>130.5331820469466</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -4840,49 +4840,49 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>10</v>
+        <v>219</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="Y41" t="n">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="Z41" t="n">
+        <v>94</v>
+      </c>
+      <c r="AA41" t="n">
         <v>9</v>
       </c>
-      <c r="AA41" t="n">
-        <v>1.3171092507642</v>
-      </c>
       <c r="AB41" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="AC41" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="AD41" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE41" t="n">
         <v>0</v>
       </c>
       <c r="AF41" t="n">
-        <v>0.05683562462218106</v>
+        <v>-0.03675642391317524</v>
       </c>
       <c r="AG41" t="n">
-        <v>-0.06087689765263349</v>
+        <v>0.02756965276785195</v>
       </c>
       <c r="AH41" t="n">
-        <v>-0.4397805828193668</v>
+        <v>0.02180544973816723</v>
       </c>
       <c r="AI41" t="n">
-        <v>0.5982689765805844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -4890,40 +4890,40 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.03924387757326664</v>
+        <v>0.0003906632624136881</v>
       </c>
       <c r="C42" t="n">
-        <v>1.952276359573872</v>
+        <v>9.283251606777137</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E42" t="n">
-        <v>250000.8133058291</v>
+        <v>250000.5279364499</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="G42" t="n">
-        <v>250000.0093174195</v>
+        <v>250000.4860416914</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="I42" t="n">
-        <v>250000.4637793484</v>
+        <v>250000.3704718825</v>
       </c>
       <c r="J42" t="n">
-        <v>14</v>
+        <v>231</v>
       </c>
       <c r="K42" t="n">
-        <v>250000.149490729</v>
+        <v>249999.2854387178</v>
       </c>
       <c r="L42" t="n">
-        <v>999984</v>
+        <v>999685</v>
       </c>
       <c r="M42" t="n">
-        <v>48999973.94114097</v>
+        <v>48999971.14010151</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -4932,64 +4932,64 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="Q42" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="R42" t="n">
-        <v>10.12464120040316</v>
+        <v>130.5331820469466</v>
       </c>
       <c r="S42" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="X42" t="n">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="Y42" t="n">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="Z42" t="n">
+        <v>97</v>
+      </c>
+      <c r="AA42" t="n">
         <v>9</v>
       </c>
-      <c r="AA42" t="n">
-        <v>1.952276359573872</v>
-      </c>
       <c r="AB42" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="AC42" t="n">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
       </c>
       <c r="AE42" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AF42" t="n">
-        <v>0.1306849894172046</v>
+        <v>-0.02370846923440695</v>
       </c>
       <c r="AG42" t="n">
-        <v>-0.5308423472451977</v>
+        <v>-0.008472601999528706</v>
       </c>
       <c r="AH42" t="n">
-        <v>0.6279020411602687</v>
+        <v>0.04062897930270992</v>
       </c>
       <c r="AI42" t="n">
-        <v>-0.3934887757350225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -4997,106 +4997,106 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.04094115741711174</v>
+        <v>0.0004213691461812719</v>
       </c>
       <c r="C43" t="n">
-        <v>2.831710885163292</v>
+        <v>13.34775998559849</v>
       </c>
       <c r="D43" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E43" t="n">
-        <v>250000.4198170534</v>
+        <v>250000.5279364499</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>250000.6372194607</v>
+        <v>250000.5255790208</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="I43" t="n">
-        <v>249999.9310953512</v>
+        <v>250000.3601576305</v>
       </c>
       <c r="J43" t="n">
+        <v>242</v>
+      </c>
+      <c r="K43" t="n">
+        <v>249999.2598885986</v>
+      </c>
+      <c r="L43" t="n">
+        <v>999694</v>
+      </c>
+      <c r="M43" t="n">
+        <v>48999971.1285036</v>
+      </c>
+      <c r="N43" t="n">
+        <v>52</v>
+      </c>
+      <c r="O43" t="n">
+        <v>30</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
         <v>13</v>
       </c>
-      <c r="K43" t="n">
-        <v>250000.2783340685</v>
-      </c>
-      <c r="L43" t="n">
-        <v>999976</v>
-      </c>
-      <c r="M43" t="n">
-        <v>48999974.10009342</v>
-      </c>
-      <c r="N43" t="n">
-        <v>10</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>2</v>
-      </c>
       <c r="R43" t="n">
-        <v>10.12464120040316</v>
+        <v>130.5331820469466</v>
       </c>
       <c r="S43" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="X43" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="Y43" t="n">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="Z43" t="n">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="AA43" t="n">
-        <v>2.831710885163292</v>
+        <v>13</v>
       </c>
       <c r="AB43" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AC43" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AD43" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="AE43" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="AF43" t="n">
-        <v>-0.369719691487262</v>
+        <v>0.00379574520047754</v>
       </c>
       <c r="AG43" t="n">
-        <v>0.7164702547888737</v>
+        <v>-0.01305902065359987</v>
       </c>
       <c r="AH43" t="n">
-        <v>0</v>
+        <v>-0.03813048487063497</v>
       </c>
       <c r="AI43" t="n">
-        <v>0</v>
+        <v>0.03771596145816147</v>
       </c>
     </row>
     <row r="44">
@@ -5104,106 +5104,106 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.04750249792217186</v>
+        <v>0.0004917953615426145</v>
       </c>
       <c r="C44" t="n">
-        <v>3.391055137853103</v>
+        <v>20.09652330389304</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="E44" t="n">
-        <v>250000.4179754034</v>
+        <v>250000.5630607614</v>
       </c>
       <c r="F44" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G44" t="n">
-        <v>250000.6372194607</v>
+        <v>250000.4874485359</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>250000.646473956</v>
+        <v>250000.3452569598</v>
       </c>
       <c r="J44" t="n">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="K44" t="n">
-        <v>249999.906772727</v>
+        <v>249999.2618426938</v>
       </c>
       <c r="L44" t="n">
-        <v>999979</v>
+        <v>999655</v>
       </c>
       <c r="M44" t="n">
-        <v>48999973.75124285</v>
+        <v>48999971.13108975</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="O44" t="n">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q44" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="R44" t="n">
-        <v>10.12464120040316</v>
+        <v>130.5331820469466</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="T44" t="n">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="U44" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
+        <v>82</v>
+      </c>
+      <c r="X44" t="n">
+        <v>116</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>164</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>114</v>
+      </c>
+      <c r="AA44" t="n">
         <v>20</v>
       </c>
-      <c r="X44" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z44" t="n">
+      <c r="AB44" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD44" t="n">
         <v>15</v>
       </c>
-      <c r="AA44" t="n">
-        <v>3.391055137853103</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>0</v>
-      </c>
       <c r="AE44" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="AF44" t="n">
-        <v>0.4832507689134218</v>
+        <v>0.007556418830063194</v>
       </c>
       <c r="AG44" t="n">
-        <v>0</v>
+        <v>0.02090130286524072</v>
       </c>
       <c r="AH44" t="n">
-        <v>0</v>
+        <v>-0.01211539562791586</v>
       </c>
       <c r="AI44" t="n">
-        <v>0</v>
+        <v>-0.01408257707953453</v>
       </c>
     </row>
     <row r="45">
@@ -5211,85 +5211,85 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0186787992319473</v>
+        <v>0.0004480340558188532</v>
       </c>
       <c r="C45" t="n">
-        <v>2.215076096208143</v>
+        <v>26.44470167055579</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E45" t="n">
-        <v>250000.4179754034</v>
+        <v>250000.5471365343</v>
       </c>
       <c r="F45" t="n">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="G45" t="n">
-        <v>250000.6346278107</v>
+        <v>250000.4734914902</v>
       </c>
       <c r="H45" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="I45" t="n">
-        <v>250000.646473956</v>
+        <v>250000.3643166127</v>
       </c>
       <c r="J45" t="n">
-        <v>8</v>
+        <v>243</v>
       </c>
       <c r="K45" t="n">
-        <v>250000.3881818459</v>
+        <v>249999.2675574626</v>
       </c>
       <c r="L45" t="n">
-        <v>999982</v>
+        <v>999626</v>
       </c>
       <c r="M45" t="n">
-        <v>48999973.26694208</v>
+        <v>48999971.12278835</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="P45" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="Q45" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="R45" t="n">
-        <v>10.12464120040316</v>
+        <v>130.5331820469466</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="U45" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>20</v>
+        <v>183</v>
       </c>
       <c r="X45" t="n">
-        <v>20</v>
+        <v>190</v>
       </c>
       <c r="Y45" t="n">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="Z45" t="n">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="AA45" t="n">
-        <v>2.215076096208143</v>
+        <v>26</v>
       </c>
       <c r="AB45" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AC45" t="n">
         <v>0</v>
@@ -5301,10 +5301,10 @@
         <v>0</v>
       </c>
       <c r="AF45" t="n">
-        <v>0.1241248850419652</v>
+        <v>0.004774442728376016</v>
       </c>
       <c r="AG45" t="n">
-        <v>0</v>
+        <v>0.02912221362930723</v>
       </c>
       <c r="AH45" t="n">
         <v>0</v>
@@ -5318,40 +5318,40 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.02506545847520274</v>
+        <v>0.0004762829079598978</v>
       </c>
       <c r="C46" t="n">
-        <v>1.974909736002937</v>
+        <v>31.56162414739448</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E46" t="n">
-        <v>250000.4179754034</v>
+        <v>250000.5452948843</v>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="G46" t="n">
-        <v>250000.6346278107</v>
+        <v>250000.4716498402</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I46" t="n">
-        <v>250000.644632306</v>
+        <v>250000.3915971763</v>
       </c>
       <c r="J46" t="n">
-        <v>12</v>
+        <v>247</v>
       </c>
       <c r="K46" t="n">
-        <v>250000.5104650809</v>
+        <v>249999.2704902553</v>
       </c>
       <c r="L46" t="n">
-        <v>999984</v>
+        <v>999652</v>
       </c>
       <c r="M46" t="n">
-        <v>48999973.1417672</v>
+        <v>48999971.08679169</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -5360,13 +5360,13 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Q46" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="R46" t="n">
-        <v>10.12464120040316</v>
+        <v>130.5331820469466</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -5375,49 +5375,49 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="X46" t="n">
-        <v>10</v>
+        <v>206</v>
       </c>
       <c r="Y46" t="n">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="Z46" t="n">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="AA46" t="n">
-        <v>1.974909736002937</v>
+        <v>32</v>
       </c>
       <c r="AB46" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AC46" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
       </c>
       <c r="AE46" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AF46" t="n">
-        <v>0.1485060539562255</v>
+        <v>0.008951941068517044</v>
       </c>
       <c r="AG46" t="n">
-        <v>0</v>
+        <v>0.002283980342326686</v>
       </c>
       <c r="AH46" t="n">
-        <v>0</v>
+        <v>0.03238723776303232</v>
       </c>
       <c r="AI46" t="n">
-        <v>-0.2517045847489499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -5425,55 +5425,55 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.02361855026207977</v>
+        <v>0.0005851668246088617</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9374708216223253</v>
+        <v>39.44538104745078</v>
       </c>
       <c r="D47" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E47" t="n">
-        <v>250000.1662708186</v>
+        <v>250000.5452948843</v>
       </c>
       <c r="F47" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="G47" t="n">
-        <v>250000.6346278107</v>
+        <v>250000.502195428</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="I47" t="n">
-        <v>250000.644632306</v>
+        <v>250000.3920395066</v>
       </c>
       <c r="J47" t="n">
-        <v>10</v>
+        <v>231</v>
       </c>
       <c r="K47" t="n">
-        <v>250000.6571294849</v>
+        <v>249999.2776005464</v>
       </c>
       <c r="L47" t="n">
-        <v>999976</v>
+        <v>999684</v>
       </c>
       <c r="M47" t="n">
-        <v>48999973.24027408</v>
+        <v>48999971.04001854</v>
       </c>
       <c r="N47" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Q47" t="n">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="R47" t="n">
-        <v>10.12464120040316</v>
+        <v>130.5331820469466</v>
       </c>
       <c r="S47" t="n">
         <v>0</v>
@@ -5482,49 +5482,49 @@
         <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="n">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="X47" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="Y47" t="n">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="Z47" t="n">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.9374708216223253</v>
+        <v>39</v>
       </c>
       <c r="AB47" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC47" t="n">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="AD47" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AE47" t="n">
         <v>0</v>
       </c>
       <c r="AF47" t="n">
-        <v>0.06642510514939204</v>
+        <v>0.05717409902717918</v>
       </c>
       <c r="AG47" t="n">
-        <v>-0.0955242010531947</v>
+        <v>-0.06102959951385856</v>
       </c>
       <c r="AH47" t="n">
-        <v>-0.2608540528744925</v>
+        <v>0.05073726398404688</v>
       </c>
       <c r="AI47" t="n">
-        <v>0.354278253915254</v>
+        <v>0.01843275499413721</v>
       </c>
     </row>
     <row r="48">
@@ -5532,61 +5532,61 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.01489109914072533</v>
+        <v>0.0005991140884603017</v>
       </c>
       <c r="C48" t="n">
-        <v>1.45094935277023</v>
+        <v>27.41985568195341</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>250000.5194574225</v>
+        <v>250000.5626359893</v>
       </c>
       <c r="F48" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G48" t="n">
-        <v>250000.3719321078</v>
+        <v>250000.551091042</v>
       </c>
       <c r="H48" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="I48" t="n">
-        <v>250000.549108105</v>
+        <v>250000.3291682571</v>
       </c>
       <c r="J48" t="n">
-        <v>9</v>
+        <v>224</v>
       </c>
       <c r="K48" t="n">
-        <v>250000.7217129401</v>
+        <v>249999.3329329954</v>
       </c>
       <c r="L48" t="n">
-        <v>999977</v>
+        <v>999723</v>
       </c>
       <c r="M48" t="n">
-        <v>48999973.17279898</v>
+        <v>48999970.97050402</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="O48" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="Q48" t="n">
+        <v>27</v>
+      </c>
+      <c r="R48" t="n">
+        <v>130.5331820469466</v>
+      </c>
+      <c r="S48" t="n">
         <v>1</v>
       </c>
-      <c r="R48" t="n">
-        <v>10.12464120040316</v>
-      </c>
-      <c r="S48" t="n">
-        <v>0</v>
-      </c>
       <c r="T48" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="U48" t="n">
         <v>0</v>
@@ -5595,43 +5595,43 @@
         <v>0</v>
       </c>
       <c r="W48" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="X48" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="Y48" t="n">
-        <v>2</v>
+        <v>139</v>
       </c>
       <c r="Z48" t="n">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="AA48" t="n">
-        <v>1.45094935277023</v>
+        <v>27</v>
       </c>
       <c r="AB48" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="AC48" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD48" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="AE48" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="AF48" t="n">
-        <v>-0.08514229944557883</v>
+        <v>0.02201589240576141</v>
       </c>
       <c r="AG48" t="n">
-        <v>-0.09039659486734308</v>
+        <v>0.02546234874171205</v>
       </c>
       <c r="AH48" t="n">
-        <v>0.2382575862575322</v>
+        <v>-0.09900515346089378</v>
       </c>
       <c r="AI48" t="n">
-        <v>0</v>
+        <v>0.03939020098187029</v>
       </c>
     </row>
     <row r="49">
@@ -5639,85 +5639,85 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.01086282351978309</v>
+        <v>0.0002675103024686905</v>
       </c>
       <c r="C49" t="n">
-        <v>1.718235658932127</v>
+        <v>30.58658477541315</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E49" t="n">
-        <v>250000.5194574225</v>
+        <v>250000.6020261903</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>250000.608348044</v>
+        <v>250000.4509942385</v>
       </c>
       <c r="H49" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="I49" t="n">
-        <v>250000.4568698601</v>
+        <v>250000.3527889559</v>
       </c>
       <c r="J49" t="n">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="K49" t="n">
-        <v>250000.6347289906</v>
+        <v>249999.3531072378</v>
       </c>
       <c r="L49" t="n">
-        <v>999978</v>
+        <v>999654</v>
       </c>
       <c r="M49" t="n">
-        <v>48999973.10693029</v>
+        <v>48999970.97584908</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="P49" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="R49" t="n">
-        <v>10.12464120040316</v>
+        <v>130.5331820469466</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="T49" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="U49" t="n">
         <v>0</v>
       </c>
       <c r="V49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W49" t="n">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="X49" t="n">
-        <v>10</v>
+        <v>232</v>
       </c>
       <c r="Y49" t="n">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="Z49" t="n">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="AA49" t="n">
-        <v>1.718235658932127</v>
+        <v>31</v>
       </c>
       <c r="AB49" t="n">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="AC49" t="n">
         <v>0</v>
@@ -5726,19 +5726,19 @@
         <v>0</v>
       </c>
       <c r="AE49" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AF49" t="n">
-        <v>-0.1351547394006047</v>
+        <v>-0.003591347864130512</v>
       </c>
       <c r="AG49" t="n">
-        <v>0.1900994116149377</v>
+        <v>0.02741980602149852</v>
       </c>
       <c r="AH49" t="n">
         <v>0</v>
       </c>
       <c r="AI49" t="n">
-        <v>0</v>
+        <v>-0.005062654527137056</v>
       </c>
     </row>
     <row r="50">
@@ -5746,88 +5746,88 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0120203864722199</v>
+        <v>0.0001958098546339354</v>
       </c>
       <c r="C50" t="n">
-        <v>1.513956555412262</v>
+        <v>28.01146820694424</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E50" t="n">
-        <v>250000.5194574225</v>
+        <v>250000.5943718857</v>
       </c>
       <c r="F50" t="n">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="G50" t="n">
-        <v>250000.608348044</v>
+        <v>250000.4509942385</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>250000.6451276217</v>
+        <v>250000.3791171119</v>
       </c>
       <c r="J50" t="n">
-        <v>16</v>
+        <v>219</v>
       </c>
       <c r="K50" t="n">
-        <v>250000.4977326012</v>
+        <v>249999.34767424</v>
       </c>
       <c r="L50" t="n">
-        <v>999981</v>
+        <v>999670</v>
       </c>
       <c r="M50" t="n">
-        <v>48999973.04988561</v>
+        <v>48999970.95209163</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Q50" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="R50" t="n">
-        <v>10.12464120040316</v>
+        <v>130.5331820469466</v>
       </c>
       <c r="S50" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T50" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="U50" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="n">
-        <v>10</v>
+        <v>227</v>
       </c>
       <c r="X50" t="n">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="Y50" t="n">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="Z50" t="n">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="AA50" t="n">
-        <v>1.513956555412262</v>
+        <v>28</v>
       </c>
       <c r="AB50" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AC50" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -5836,13 +5836,13 @@
         <v>0</v>
       </c>
       <c r="AF50" t="n">
-        <v>0.05459502869052812</v>
+        <v>-0.002224859141279012</v>
       </c>
       <c r="AG50" t="n">
-        <v>0</v>
+        <v>0.005215915356529877</v>
       </c>
       <c r="AH50" t="n">
-        <v>0</v>
+        <v>0.01135697154677473</v>
       </c>
       <c r="AI50" t="n">
         <v>0</v>
@@ -5853,40 +5853,40 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.01120535224710867</v>
+        <v>0.0002080210391872743</v>
       </c>
       <c r="C51" t="n">
-        <v>1.041499633288539</v>
+        <v>40.11527338263586</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>250000.5194574225</v>
+        <v>250000.5925302357</v>
       </c>
       <c r="F51" t="n">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="G51" t="n">
-        <v>250000.608348044</v>
+        <v>250000.4597595601</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="I51" t="n">
-        <v>250000.6451276217</v>
+        <v>250000.3843330272</v>
       </c>
       <c r="J51" t="n">
-        <v>14</v>
+        <v>191</v>
       </c>
       <c r="K51" t="n">
-        <v>250000.5504859799</v>
+        <v>249999.3436077308</v>
       </c>
       <c r="L51" t="n">
-        <v>999983</v>
+        <v>999698</v>
       </c>
       <c r="M51" t="n">
-        <v>48999972.99424058</v>
+        <v>48999970.9345936</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -5895,13 +5895,13 @@
         <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="Q51" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="R51" t="n">
-        <v>10.12464120040316</v>
+        <v>130.5331820469466</v>
       </c>
       <c r="S51" t="n">
         <v>0</v>
@@ -5910,49 +5910,49 @@
         <v>0</v>
       </c>
       <c r="U51" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="V51" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W51" t="n">
-        <v>10</v>
+        <v>241</v>
       </c>
       <c r="X51" t="n">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="Y51" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="Z51" t="n">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="AA51" t="n">
-        <v>1.041499633288539</v>
+        <v>40</v>
       </c>
       <c r="AB51" t="n">
         <v>0</v>
       </c>
       <c r="AC51" t="n">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="AD51" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE51" t="n">
         <v>0</v>
       </c>
       <c r="AF51" t="n">
-        <v>0.03501111076911911</v>
+        <v>0.02496252470882609</v>
       </c>
       <c r="AG51" t="n">
-        <v>-0.04587140897638164</v>
+        <v>-0.04099003953160718</v>
       </c>
       <c r="AH51" t="n">
-        <v>-0.1243088747141883</v>
+        <v>0.03994003953994252</v>
       </c>
       <c r="AI51" t="n">
-        <v>0.1680802837072406</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
